--- a/L2-Ergebnisse-Edge.xlsx
+++ b/L2-Ergebnisse-Edge.xlsx
@@ -8,13 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9D2415-141F-450B-9FA6-FB51E7D63B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AABDD6C-AFE6-4587-8297-568CEBA05570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ergebnisse" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$K$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$K$2:$K$181</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$L$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$L$2:$L$181</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Ergebnisse!$I$2:$I$181</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Ergebnisse!$J$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Ergebnisse!$J$2:$J$181</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -114,6 +130,838 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Vergleich FTP-Algorithmen in L2 - Randdaten</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Vergleich FTP-Algorithmen in L2 - Randdaten</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2C3112DE-75C5-492E-9F15-0C40C719664C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>best_next_aktive_robot</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B7A242E1-8975-46A8-8B2B-7511ACD2CC32}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>on_roboter_permutation</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4AEF03BC-8DB0-411F-9319-64F8EBF0B4D5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>greedy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Anzahl Roboter</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Anzahl Roboter</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Approximationsfaktor</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagramm 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF699C2B-67B4-F46F-A110-9A4518A3B949}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3194050" y="552450"/>
+              <a:ext cx="4962525" cy="2867025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,7 +1284,7 @@
   <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7318,5 +8166,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/L2-Ergebnisse-Edge.xlsx
+++ b/L2-Ergebnisse-Edge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\IdeaProjects\F\Frezze_Tag_Problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE83F2B-3F09-4359-BD87-3B133BFE7375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E3ED9A-37B9-4445-AE2F-CE96899B7C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,18 +18,11 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Ergebnisse!$I$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Ergebnisse!$J$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Ergebnisse!$K$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Ergebnisse!$J$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Ergebnisse!$J$2:$J$451</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Ergebnisse!$K$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Ergebnisse!$K$2:$K$451</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Ergebnisse!$H$2:$H$451</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Ergebnisse!$I$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Ergebnisse!$I$2:$I$451</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Experiment</t>
   </si>
@@ -68,15 +61,40 @@
   <si>
     <t>greedy</t>
   </si>
+  <si>
+    <t>b_n</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Varianz</t>
+  </si>
+  <si>
+    <t>o_r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -126,26 +145,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -177,7 +196,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{01703AC0-CC26-4789-A324-0BB66F4DB343}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>best_next_aktive_robot</cx:v>
             </cx:txData>
           </cx:tx>
@@ -189,7 +208,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5113A1EE-701C-46DE-AF64-51B973770515}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>on_roboter_permutation</cx:v>
             </cx:txData>
           </cx:tx>
@@ -201,7 +220,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{593DBCA8-37BA-4ADE-BACC-804649D45518}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>greedy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -877,16 +896,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>231775</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -922,7 +941,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3584575" y="676275"/>
+              <a:off x="625475" y="739775"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1273,15 +1292,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K451"/>
+  <dimension ref="A1:X451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" activeCellId="3" sqref="H1:H1048576 I1:I1048576 J1:J1048576 K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,8 +1331,23 @@
       <c r="K1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1347,8 +1381,23 @@
         <f>F2/C2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>MAX(I2:I51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>VARA(I2:I51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1382,8 +1431,23 @@
         <f t="shared" ref="K3:K66" si="2">F3/C3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(I52:I101)</f>
+        <v>1.1468048075925357</v>
+      </c>
+      <c r="P3">
+        <f>MAX(I52:I101)</f>
+        <v>1.5815899581589958</v>
+      </c>
+      <c r="Q3">
+        <f>VARA(I52:I101)</f>
+        <v>3.6417028947608933E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1417,8 +1481,23 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(I102:I151)</f>
+        <v>1.193209967010092</v>
+      </c>
+      <c r="P4">
+        <f>MAX(I102:I151)</f>
+        <v>1.5633187772925765</v>
+      </c>
+      <c r="Q4">
+        <f>VARA(I102:I151)</f>
+        <v>4.0283207184765094E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1452,8 +1531,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N5">
+        <f>N4+1</f>
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(I152:I201)</f>
+        <v>1.2519948674724484</v>
+      </c>
+      <c r="P5">
+        <f>MAX(I152:I201)</f>
+        <v>1.6016260162601625</v>
+      </c>
+      <c r="Q5">
+        <f>VARA(I152:I201)</f>
+        <v>4.5476884293494245E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1487,8 +1582,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N6">
+        <f t="shared" ref="N6:N10" si="3">N5+1</f>
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(I202:I251)</f>
+        <v>1.1982567700016518</v>
+      </c>
+      <c r="P6">
+        <f>MAX(I202:I251)</f>
+        <v>1.4939271255060729</v>
+      </c>
+      <c r="Q6">
+        <f>VARA(I202:I251)</f>
+        <v>2.7606983724237116E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1522,8 +1633,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <f>AVERAGE(I252:I301)</f>
+        <v>1.299249768028611</v>
+      </c>
+      <c r="P7">
+        <f>MAX(I252:I301)</f>
+        <v>1.6885964912280702</v>
+      </c>
+      <c r="Q7">
+        <f>VARA(I252:I301)</f>
+        <v>3.9127423493462335E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1557,8 +1684,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <f>AVERAGE(I302:I351)</f>
+        <v>1.3157889033851304</v>
+      </c>
+      <c r="P8">
+        <f>MAX(I302:I351)</f>
+        <v>1.6463414634146341</v>
+      </c>
+      <c r="Q8">
+        <f>VARA(I302:I351)</f>
+        <v>2.2083558360122879E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1592,8 +1735,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <f>AVERAGE(I352:I401)</f>
+        <v>1.3170226404273881</v>
+      </c>
+      <c r="P9">
+        <f>MAX(I352:I401)</f>
+        <v>1.6493506493506493</v>
+      </c>
+      <c r="Q9">
+        <f>VARA(I352:I401)</f>
+        <v>3.1247440600821783E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1627,8 +1786,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="O10">
+        <f>AVERAGE(I402:I451)</f>
+        <v>1.3667968303038365</v>
+      </c>
+      <c r="P10">
+        <f>MAX(I402:I451)</f>
+        <v>1.9177489177489178</v>
+      </c>
+      <c r="Q10">
+        <f>VARA(I402:I451)</f>
+        <v>3.2583325384290367E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1663,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1698,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1732,8 +1907,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1767,8 +1972,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f>AVERAGE(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f>MAX(J2:J51)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>VARA(J2:J51)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <f>AVERAGE(K2:K51)</f>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f>MAX(Q2:Q51)</f>
+        <v>4.5476884293494245E-2</v>
+      </c>
+      <c r="X14">
+        <f>VARA(Q2:Q51)</f>
+        <v>2.2852142754983942E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1802,8 +2037,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGE(J52:J101)</f>
+        <v>1.0534577985866715</v>
+      </c>
+      <c r="P15">
+        <f>MAX(J52:J101)</f>
+        <v>1.2962962962962963</v>
+      </c>
+      <c r="Q15">
+        <f>VARA(J52:J101)</f>
+        <v>7.3698639859567407E-3</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <f>AVERAGE(K52:K101)</f>
+        <v>1.0534577985866715</v>
+      </c>
+      <c r="W15">
+        <f>MAX(K52:K101)</f>
+        <v>1.2962962962962963</v>
+      </c>
+      <c r="X15">
+        <f>VARA(K52:K101)</f>
+        <v>7.3698639859567407E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1837,8 +2102,38 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <f>AVERAGE(J102:J151)</f>
+        <v>1.1788636628966871</v>
+      </c>
+      <c r="P16">
+        <f>MAX(J102:J151)</f>
+        <v>1.6714975845410629</v>
+      </c>
+      <c r="Q16">
+        <f>VARA(J102:J151)</f>
+        <v>3.5544036407604056E-2</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <f>AVERAGE(K102:K151)</f>
+        <v>1.2117179964685869</v>
+      </c>
+      <c r="W16">
+        <f>MAX(K102:K151)</f>
+        <v>1.6714975845410629</v>
+      </c>
+      <c r="X16">
+        <f>VARA(K102:K151)</f>
+        <v>3.3464918673794142E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1872,8 +2167,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N17">
+        <f>N16+1</f>
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(J152:J201)</f>
+        <v>1.242718546120007</v>
+      </c>
+      <c r="P17">
+        <f>MAX(I164:I213)</f>
+        <v>1.6016260162601625</v>
+      </c>
+      <c r="Q17">
+        <f>VARA(I164:I213)</f>
+        <v>4.2919061695420577E-2</v>
+      </c>
+      <c r="U17">
+        <f>U16+1</f>
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <f>AVERAGE(K152:K201)</f>
+        <v>1.2666195718771265</v>
+      </c>
+      <c r="W17">
+        <f>MAX(K164:K213)</f>
+        <v>1.6872246696035242</v>
+      </c>
+      <c r="X17">
+        <f>VARA(K164:K213)</f>
+        <v>3.3329516236806613E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1907,8 +2234,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N18">
+        <f t="shared" ref="N18:N22" si="4">N17+1</f>
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(I214:I263)</f>
+        <v>1.2384233545686711</v>
+      </c>
+      <c r="P18">
+        <f>MAX(J152:J201)</f>
+        <v>1.6521739130434783</v>
+      </c>
+      <c r="Q18">
+        <f>VARA(J152:J201)</f>
+        <v>2.8528330473224107E-2</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18:U22" si="5">U17+1</f>
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <f>AVERAGE(K214:K263)</f>
+        <v>1.2265143307866009</v>
+      </c>
+      <c r="W18">
+        <f>MAX(K152:K201)</f>
+        <v>1.6521739130434783</v>
+      </c>
+      <c r="X18">
+        <f>VARA(K152:K201)</f>
+        <v>3.2045103086151779E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1942,8 +2301,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <f>AVERAGE(J252:J301)</f>
+        <v>1.2789946935412631</v>
+      </c>
+      <c r="P19">
+        <f>MAX(J252:J301)</f>
+        <v>1.75</v>
+      </c>
+      <c r="Q19">
+        <f>VARA(J252:J301)</f>
+        <v>3.8085276209746825E-2</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="V19">
+        <f>AVERAGE(K252:K301)</f>
+        <v>1.2276855449190385</v>
+      </c>
+      <c r="W19">
+        <f>MAX(K252:K301)</f>
+        <v>1.75</v>
+      </c>
+      <c r="X19">
+        <f>VARA(K252:K301)</f>
+        <v>2.699156285451746E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1977,8 +2368,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(J302:J351)</f>
+        <v>1.3130840991136845</v>
+      </c>
+      <c r="P20">
+        <f>MAX(J302:J351)</f>
+        <v>1.8</v>
+      </c>
+      <c r="Q20">
+        <f>VARA(J302:J351)</f>
+        <v>3.5526028859613479E-2</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="V20">
+        <f>AVERAGE(K302:K351)</f>
+        <v>1.3436286495105438</v>
+      </c>
+      <c r="W20">
+        <f>MAX(K302:K351)</f>
+        <v>1.8117154811715481</v>
+      </c>
+      <c r="X20">
+        <f>VARA(K302:K351)</f>
+        <v>3.0132294856844113E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2012,8 +2435,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGE(J352:J401)</f>
+        <v>1.3964094856912497</v>
+      </c>
+      <c r="P21">
+        <f>MAX(J352:J401)</f>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="Q21">
+        <f>VARA(J352:J401)</f>
+        <v>3.619794146530643E-2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <f>AVERAGE(K352:K401)</f>
+        <v>1.4304718641480818</v>
+      </c>
+      <c r="W21">
+        <f>MAX(K352:K401)</f>
+        <v>1.9393939393939394</v>
+      </c>
+      <c r="X21">
+        <f>VARA(K352:K401)</f>
+        <v>2.5943948335202666E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2047,8 +2502,40 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O22">
+        <f>AVERAGE(J402:J450)</f>
+        <v>1.4568082672495499</v>
+      </c>
+      <c r="P22">
+        <f>MAX(J402:J450)</f>
+        <v>1.9954128440366972</v>
+      </c>
+      <c r="Q22">
+        <f>VARA(J402:J450)</f>
+        <v>3.8698786942627329E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="V22">
+        <f>AVERAGE(K402:K450)</f>
+        <v>1.4763185400071783</v>
+      </c>
+      <c r="W22">
+        <f>MAX(K402:K450)</f>
+        <v>1.9785407725321889</v>
+      </c>
+      <c r="X22">
+        <f>VARA(K402:K450)</f>
+        <v>3.0685344588524305E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2083,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2118,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2153,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2188,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2223,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2258,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2293,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2328,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2363,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3611,15 +4098,15 @@
         <v>4</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="3">D67/C67</f>
+        <f t="shared" ref="I67:I130" si="6">D67/C67</f>
         <v>1.479087452471483</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="4">E67/C67</f>
+        <f t="shared" ref="J67:J130" si="7">E67/C67</f>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K130" si="5">F67/C67</f>
+        <f t="shared" ref="K67:K130" si="8">F67/C67</f>
         <v>1</v>
       </c>
     </row>
@@ -3646,15 +4133,15 @@
         <v>4</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3681,15 +4168,15 @@
         <v>4</v>
       </c>
       <c r="I69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3925619834710743</v>
       </c>
       <c r="J69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3716,15 +4203,15 @@
         <v>4</v>
       </c>
       <c r="I70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3751,15 +4238,15 @@
         <v>4</v>
       </c>
       <c r="I71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3786,15 +4273,15 @@
         <v>4</v>
       </c>
       <c r="I72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1675977653631284</v>
       </c>
       <c r="J72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1229050279329609</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1229050279329609</v>
       </c>
     </row>
@@ -3821,15 +4308,15 @@
         <v>4</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4232804232804233</v>
       </c>
       <c r="J73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2962962962962963</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2962962962962963</v>
       </c>
     </row>
@@ -3856,15 +4343,15 @@
         <v>4</v>
       </c>
       <c r="I74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3891,15 +4378,15 @@
         <v>4</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5760000000000001</v>
       </c>
       <c r="J75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3926,15 +4413,15 @@
         <v>4</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1743772241992882</v>
       </c>
       <c r="J76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0142348754448398</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0142348754448398</v>
       </c>
     </row>
@@ -3961,15 +4448,15 @@
         <v>4</v>
       </c>
       <c r="I77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3996,15 +4483,15 @@
         <v>4</v>
       </c>
       <c r="I78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1823204419889504</v>
       </c>
       <c r="J78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1270718232044199</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1270718232044199</v>
       </c>
     </row>
@@ -4031,15 +4518,15 @@
         <v>4</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0172413793103448</v>
       </c>
       <c r="J79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4066,15 +4553,15 @@
         <v>4</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0144927536231885</v>
       </c>
       <c r="J80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4101,15 +4588,15 @@
         <v>4</v>
       </c>
       <c r="I81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4136,15 +4623,15 @@
         <v>4</v>
       </c>
       <c r="I82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0456852791878173</v>
       </c>
       <c r="J82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4171,15 +4658,15 @@
         <v>4</v>
       </c>
       <c r="I83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4206,15 +4693,15 @@
         <v>4</v>
       </c>
       <c r="I84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4952380952380953</v>
       </c>
       <c r="J84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2476190476190476</v>
       </c>
       <c r="K84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2476190476190476</v>
       </c>
     </row>
@@ -4241,15 +4728,15 @@
         <v>4</v>
       </c>
       <c r="I85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4276,15 +4763,15 @@
         <v>4</v>
       </c>
       <c r="I86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1599999999999999</v>
       </c>
       <c r="J86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0666666666666667</v>
       </c>
       <c r="K86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0666666666666667</v>
       </c>
     </row>
@@ -4311,15 +4798,15 @@
         <v>4</v>
       </c>
       <c r="I87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.231958762886598</v>
       </c>
       <c r="J87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.134020618556701</v>
       </c>
       <c r="K87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.134020618556701</v>
       </c>
     </row>
@@ -4346,15 +4833,15 @@
         <v>4</v>
       </c>
       <c r="I88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3607843137254902</v>
       </c>
       <c r="J88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4381,15 +4868,15 @@
         <v>4</v>
       </c>
       <c r="I89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4416,15 +4903,15 @@
         <v>4</v>
       </c>
       <c r="I90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4451,15 +4938,15 @@
         <v>4</v>
       </c>
       <c r="I91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4486,15 +4973,15 @@
         <v>4</v>
       </c>
       <c r="I92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4521,15 +5008,15 @@
         <v>4</v>
       </c>
       <c r="I93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4218009478672986</v>
       </c>
       <c r="J93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2417061611374407</v>
       </c>
       <c r="K93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2417061611374407</v>
       </c>
     </row>
@@ -4556,15 +5043,15 @@
         <v>4</v>
       </c>
       <c r="I94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5410628019323671</v>
       </c>
       <c r="J94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2463768115942029</v>
       </c>
       <c r="K94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2463768115942029</v>
       </c>
     </row>
@@ -4591,15 +5078,15 @@
         <v>4</v>
       </c>
       <c r="I95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4626,15 +5113,15 @@
         <v>4</v>
       </c>
       <c r="I96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1074380165289257</v>
       </c>
       <c r="J96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0826446280991735</v>
       </c>
       <c r="K96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0826446280991735</v>
       </c>
     </row>
@@ -4661,15 +5148,15 @@
         <v>4</v>
       </c>
       <c r="I97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2315789473684211</v>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1789473684210525</v>
       </c>
       <c r="K97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1789473684210525</v>
       </c>
     </row>
@@ -4696,15 +5183,15 @@
         <v>4</v>
       </c>
       <c r="I98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3245614035087718</v>
       </c>
       <c r="J98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1798245614035088</v>
       </c>
       <c r="K98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1798245614035088</v>
       </c>
     </row>
@@ -4731,15 +5218,15 @@
         <v>4</v>
       </c>
       <c r="I99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4766,15 +5253,15 @@
         <v>4</v>
       </c>
       <c r="I100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0655737704918034</v>
       </c>
       <c r="J100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0327868852459017</v>
       </c>
       <c r="K100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0327868852459017</v>
       </c>
     </row>
@@ -4801,15 +5288,15 @@
         <v>4</v>
       </c>
       <c r="I101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4836,15 +5323,15 @@
         <v>5</v>
       </c>
       <c r="I102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1704545454545454</v>
       </c>
       <c r="J102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1704545454545454</v>
       </c>
       <c r="K102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2784090909090908</v>
       </c>
     </row>
@@ -4871,15 +5358,15 @@
         <v>5</v>
       </c>
       <c r="I103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3148148148148149</v>
       </c>
       <c r="J103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="K103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2074074074074075</v>
       </c>
     </row>
@@ -4906,15 +5393,15 @@
         <v>5</v>
       </c>
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4638783269961977</v>
       </c>
       <c r="J104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4068441064638784</v>
       </c>
       <c r="K104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1901140684410647</v>
       </c>
     </row>
@@ -4941,15 +5428,15 @@
         <v>5</v>
       </c>
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4976,15 +5463,15 @@
         <v>5</v>
       </c>
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1919504643962848</v>
       </c>
     </row>
@@ -5011,15 +5498,15 @@
         <v>5</v>
       </c>
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1114457831325302</v>
       </c>
     </row>
@@ -5046,15 +5533,15 @@
         <v>5</v>
       </c>
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4593495934959348</v>
       </c>
       <c r="J108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4024390243902438</v>
       </c>
       <c r="K108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.443089430894309</v>
       </c>
     </row>
@@ -5081,15 +5568,15 @@
         <v>5</v>
       </c>
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2681818181818181</v>
       </c>
       <c r="J109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2681818181818181</v>
       </c>
       <c r="K109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1636363636363636</v>
       </c>
     </row>
@@ -5116,15 +5603,15 @@
         <v>5</v>
       </c>
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5043103448275863</v>
       </c>
       <c r="J110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1551724137931034</v>
       </c>
       <c r="K110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
     </row>
@@ -5151,15 +5638,15 @@
         <v>5</v>
       </c>
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5186,15 +5673,15 @@
         <v>5</v>
       </c>
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0394088669950738</v>
       </c>
       <c r="J112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0394088669950738</v>
       </c>
       <c r="K112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0394088669950738</v>
       </c>
     </row>
@@ -5221,15 +5708,15 @@
         <v>5</v>
       </c>
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2549999999999999</v>
       </c>
       <c r="J113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2350000000000001</v>
       </c>
       <c r="K113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.23</v>
       </c>
     </row>
@@ -5256,15 +5743,15 @@
         <v>5</v>
       </c>
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3307086614173229</v>
       </c>
       <c r="J114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.3307086614173229</v>
       </c>
       <c r="K114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1692913385826771</v>
       </c>
     </row>
@@ -5291,15 +5778,15 @@
         <v>5</v>
       </c>
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.0437710437710437</v>
       </c>
       <c r="J115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0437710437710437</v>
       </c>
       <c r="K115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0740740740740742</v>
       </c>
     </row>
@@ -5326,15 +5813,15 @@
         <v>5</v>
       </c>
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5633187772925765</v>
       </c>
       <c r="J116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4978165938864629</v>
       </c>
       <c r="K116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4279475982532752</v>
       </c>
     </row>
@@ -5361,15 +5848,15 @@
         <v>5</v>
       </c>
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1213592233009708</v>
       </c>
       <c r="J117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1213592233009708</v>
       </c>
       <c r="K117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1213592233009708</v>
       </c>
     </row>
@@ -5396,15 +5883,15 @@
         <v>5</v>
       </c>
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.2743682310469313</v>
       </c>
       <c r="J118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2743682310469313</v>
       </c>
       <c r="K118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1046931407942238</v>
       </c>
     </row>
@@ -5431,15 +5918,15 @@
         <v>5</v>
       </c>
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4594594594594594</v>
       </c>
       <c r="J119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4594594594594594</v>
       </c>
       <c r="K119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4432432432432432</v>
       </c>
     </row>
@@ -5466,15 +5953,15 @@
         <v>5</v>
       </c>
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0233644859813085</v>
       </c>
       <c r="K120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0233644859813085</v>
       </c>
     </row>
@@ -5501,15 +5988,15 @@
         <v>5</v>
       </c>
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1691729323308271</v>
       </c>
       <c r="J121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.1691729323308271</v>
       </c>
       <c r="K121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0864661654135339</v>
       </c>
     </row>
@@ -5536,15 +6023,15 @@
         <v>5</v>
       </c>
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3022388059701493</v>
       </c>
       <c r="J122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2276119402985075</v>
       </c>
       <c r="K122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0895522388059702</v>
       </c>
     </row>
@@ -5571,15 +6058,15 @@
         <v>5</v>
       </c>
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4895397489539748</v>
       </c>
       <c r="J123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4895397489539748</v>
       </c>
       <c r="K123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1255230125523012</v>
       </c>
     </row>
@@ -5606,15 +6093,15 @@
         <v>5</v>
       </c>
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5641,15 +6128,15 @@
         <v>5</v>
       </c>
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.2010309278350515</v>
       </c>
       <c r="K125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2010309278350515</v>
       </c>
     </row>
@@ -5676,15 +6163,15 @@
         <v>5</v>
       </c>
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="J126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2588235294117647</v>
       </c>
     </row>
@@ -5711,15 +6198,15 @@
         <v>5</v>
       </c>
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5162790697674418</v>
       </c>
       <c r="J127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4976744186046511</v>
       </c>
       <c r="K127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4744186046511627</v>
       </c>
     </row>
@@ -5746,15 +6233,15 @@
         <v>5</v>
       </c>
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.29553264604811</v>
       </c>
       <c r="J128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.0034364261168385</v>
       </c>
       <c r="K128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.261168384879725</v>
       </c>
     </row>
@@ -5781,15 +6268,15 @@
         <v>5</v>
       </c>
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5291479820627802</v>
       </c>
       <c r="J129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.5291479820627802</v>
       </c>
       <c r="K129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2690582959641257</v>
       </c>
     </row>
@@ -5816,15 +6303,15 @@
         <v>5</v>
       </c>
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.4232558139534883</v>
       </c>
       <c r="J130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4232558139534883</v>
       </c>
       <c r="K130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.4232558139534883</v>
       </c>
     </row>
@@ -5851,15 +6338,15 @@
         <v>5</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="6">D131/C131</f>
+        <f t="shared" ref="I131:I194" si="9">D131/C131</f>
         <v>1.1196581196581197</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="7">E131/C131</f>
+        <f t="shared" ref="J131:J194" si="10">E131/C131</f>
         <v>1.0897435897435896</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="8">F131/C131</f>
+        <f t="shared" ref="K131:K194" si="11">F131/C131</f>
         <v>1.0854700854700854</v>
       </c>
     </row>
@@ -5886,15 +6373,15 @@
         <v>5</v>
       </c>
       <c r="I132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.410569105691057</v>
       </c>
       <c r="J132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.410569105691057</v>
       </c>
       <c r="K132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1097560975609757</v>
       </c>
     </row>
@@ -5921,15 +6408,15 @@
         <v>5</v>
       </c>
       <c r="I133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6714975845410629</v>
       </c>
       <c r="K133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6714975845410629</v>
       </c>
     </row>
@@ -5956,15 +6443,15 @@
         <v>5</v>
       </c>
       <c r="I134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -5991,15 +6478,15 @@
         <v>5</v>
       </c>
       <c r="I135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0359281437125749</v>
       </c>
     </row>
@@ -6026,15 +6513,15 @@
         <v>5</v>
       </c>
       <c r="I136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0661764705882353</v>
       </c>
       <c r="J136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0514705882352942</v>
       </c>
     </row>
@@ -6061,15 +6548,15 @@
         <v>5</v>
       </c>
       <c r="I137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5560344827586208</v>
       </c>
       <c r="J137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4870689655172413</v>
       </c>
       <c r="K137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.353448275862069</v>
       </c>
     </row>
@@ -6096,15 +6583,15 @@
         <v>5</v>
       </c>
       <c r="I138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4978165938864629</v>
       </c>
       <c r="J138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.25764192139738</v>
       </c>
       <c r="K138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.462882096069869</v>
       </c>
     </row>
@@ -6131,15 +6618,15 @@
         <v>5</v>
       </c>
       <c r="I139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6166,15 +6653,15 @@
         <v>5</v>
       </c>
       <c r="I140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4721189591078068</v>
       </c>
     </row>
@@ -6201,15 +6688,15 @@
         <v>5</v>
       </c>
       <c r="I141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3432835820895523</v>
       </c>
       <c r="J141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1156716417910448</v>
       </c>
       <c r="K141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.291044776119403</v>
       </c>
     </row>
@@ -6236,15 +6723,15 @@
         <v>5</v>
       </c>
       <c r="I142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6271,15 +6758,15 @@
         <v>5</v>
       </c>
       <c r="I143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4</v>
       </c>
     </row>
@@ -6306,15 +6793,15 @@
         <v>5</v>
       </c>
       <c r="I144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1310861423220975</v>
       </c>
       <c r="J144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1310861423220975</v>
       </c>
       <c r="K144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0149812734082397</v>
       </c>
     </row>
@@ -6341,15 +6828,15 @@
         <v>5</v>
       </c>
       <c r="I145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2048780487804878</v>
       </c>
       <c r="J145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1658536585365853</v>
       </c>
       <c r="K145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1609756097560975</v>
       </c>
     </row>
@@ -6376,15 +6863,15 @@
         <v>5</v>
       </c>
       <c r="I146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5471698113207548</v>
       </c>
     </row>
@@ -6411,15 +6898,15 @@
         <v>5</v>
       </c>
       <c r="I147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0548780487804879</v>
       </c>
       <c r="J147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0548780487804879</v>
       </c>
       <c r="K147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0304878048780488</v>
       </c>
     </row>
@@ -6446,15 +6933,15 @@
         <v>5</v>
       </c>
       <c r="I148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5869565217391304</v>
       </c>
     </row>
@@ -6481,15 +6968,15 @@
         <v>5</v>
       </c>
       <c r="I149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2008733624454149</v>
       </c>
       <c r="K149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2008733624454149</v>
       </c>
     </row>
@@ -6516,15 +7003,15 @@
         <v>5</v>
       </c>
       <c r="I150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2567049808429118</v>
       </c>
       <c r="J150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2298850574712643</v>
       </c>
       <c r="K150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1762452107279693</v>
       </c>
     </row>
@@ -6551,15 +7038,15 @@
         <v>5</v>
       </c>
       <c r="I151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0258620689655173</v>
       </c>
       <c r="J151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0258620689655173</v>
       </c>
       <c r="K151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0258620689655173</v>
       </c>
     </row>
@@ -6586,15 +7073,15 @@
         <v>6</v>
       </c>
       <c r="I152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2931034482758621</v>
       </c>
       <c r="J152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1241379310344828</v>
       </c>
       <c r="K152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1241379310344828</v>
       </c>
     </row>
@@ -6621,15 +7108,15 @@
         <v>6</v>
       </c>
       <c r="I153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1968253968253968</v>
       </c>
       <c r="J153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0380952380952382</v>
       </c>
       <c r="K153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0380952380952382</v>
       </c>
     </row>
@@ -6656,15 +7143,15 @@
         <v>6</v>
       </c>
       <c r="I154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.514018691588785</v>
       </c>
       <c r="J154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4345794392523366</v>
       </c>
       <c r="K154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4158878504672898</v>
       </c>
     </row>
@@ -6691,15 +7178,15 @@
         <v>6</v>
       </c>
       <c r="I155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4789272030651341</v>
       </c>
       <c r="J155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1226053639846743</v>
       </c>
       <c r="K155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4252873563218391</v>
       </c>
     </row>
@@ -6726,15 +7213,15 @@
         <v>6</v>
       </c>
       <c r="I156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5602836879432624</v>
       </c>
       <c r="J156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4042553191489362</v>
       </c>
       <c r="K156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4042553191489362</v>
       </c>
     </row>
@@ -6761,15 +7248,15 @@
         <v>6</v>
       </c>
       <c r="I157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5635593220338984</v>
       </c>
       <c r="K157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5635593220338984</v>
       </c>
     </row>
@@ -6796,15 +7283,15 @@
         <v>6</v>
       </c>
       <c r="I158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2201492537313432</v>
       </c>
       <c r="J158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4328358208955223</v>
       </c>
       <c r="K158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4626865671641791</v>
       </c>
     </row>
@@ -6831,15 +7318,15 @@
         <v>6</v>
       </c>
       <c r="I159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3022388059701493</v>
       </c>
       <c r="J159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2574626865671641</v>
       </c>
       <c r="K159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2574626865671641</v>
       </c>
     </row>
@@ -6866,15 +7353,15 @@
         <v>6</v>
       </c>
       <c r="I160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.452</v>
       </c>
       <c r="J160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1719999999999999</v>
       </c>
       <c r="K160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4</v>
       </c>
     </row>
@@ -6901,15 +7388,15 @@
         <v>6</v>
       </c>
       <c r="I161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1198501872659177</v>
       </c>
       <c r="K161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2172284644194757</v>
       </c>
     </row>
@@ -6936,15 +7423,15 @@
         <v>6</v>
       </c>
       <c r="I162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0237154150197629</v>
       </c>
       <c r="J162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="K162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0869565217391304</v>
       </c>
     </row>
@@ -6971,15 +7458,15 @@
         <v>6</v>
       </c>
       <c r="I163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0344827586206897</v>
       </c>
       <c r="J163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0241379310344827</v>
       </c>
       <c r="K163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0241379310344827</v>
       </c>
     </row>
@@ -7006,15 +7493,15 @@
         <v>6</v>
       </c>
       <c r="I164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1272727272727272</v>
       </c>
       <c r="K164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1272727272727272</v>
       </c>
     </row>
@@ -7041,15 +7528,15 @@
         <v>6</v>
       </c>
       <c r="I165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0130293159609121</v>
       </c>
       <c r="J165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1921824104234529</v>
       </c>
       <c r="K165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2475570032573291</v>
       </c>
     </row>
@@ -7076,15 +7563,15 @@
         <v>6</v>
       </c>
       <c r="I166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0139534883720931</v>
       </c>
       <c r="J166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1441860465116278</v>
       </c>
       <c r="K166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0744186046511628</v>
       </c>
     </row>
@@ -7111,15 +7598,15 @@
         <v>6</v>
       </c>
       <c r="I167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.467741935483871</v>
       </c>
       <c r="J167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.217741935483871</v>
       </c>
       <c r="K167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.217741935483871</v>
       </c>
     </row>
@@ -7146,15 +7633,15 @@
         <v>6</v>
       </c>
       <c r="I168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="J168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1644736842105263</v>
       </c>
       <c r="K168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2960526315789473</v>
       </c>
     </row>
@@ -7181,15 +7668,15 @@
         <v>6</v>
       </c>
       <c r="I169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.4703389830508475</v>
       </c>
       <c r="J169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4661016949152543</v>
       </c>
       <c r="K169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4661016949152543</v>
       </c>
     </row>
@@ -7216,15 +7703,15 @@
         <v>6</v>
       </c>
       <c r="I170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5333333333333334</v>
       </c>
       <c r="J170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.219607843137255</v>
       </c>
       <c r="K170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.219607843137255</v>
       </c>
     </row>
@@ -7251,15 +7738,15 @@
         <v>6</v>
       </c>
       <c r="I171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5535714285714286</v>
       </c>
       <c r="J171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2678571428571428</v>
       </c>
       <c r="K171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5357142857142858</v>
       </c>
     </row>
@@ -7286,15 +7773,15 @@
         <v>6</v>
       </c>
       <c r="I172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3957446808510638</v>
       </c>
       <c r="J172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3361702127659574</v>
       </c>
       <c r="K172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3361702127659574</v>
       </c>
     </row>
@@ -7321,15 +7808,15 @@
         <v>6</v>
       </c>
       <c r="I173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7356,15 +7843,15 @@
         <v>6</v>
       </c>
       <c r="I174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1338289962825279</v>
       </c>
       <c r="J174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1152416356877324</v>
       </c>
       <c r="K174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1003717472118959</v>
       </c>
     </row>
@@ -7391,15 +7878,15 @@
         <v>6</v>
       </c>
       <c r="I175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0227272727272727</v>
       </c>
       <c r="J175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2954545454545454</v>
       </c>
       <c r="K175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2954545454545454</v>
       </c>
     </row>
@@ -7426,15 +7913,15 @@
         <v>6</v>
       </c>
       <c r="I176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5314960629921259</v>
       </c>
       <c r="J176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3385826771653544</v>
       </c>
       <c r="K176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3385826771653544</v>
       </c>
     </row>
@@ -7461,15 +7948,15 @@
         <v>6</v>
       </c>
       <c r="I177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.475609756097561</v>
       </c>
       <c r="J177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4308943089430894</v>
       </c>
       <c r="K177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4308943089430894</v>
       </c>
     </row>
@@ -7496,15 +7983,15 @@
         <v>6</v>
       </c>
       <c r="I178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3373015873015872</v>
       </c>
       <c r="J178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2142857142857142</v>
       </c>
       <c r="K178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2142857142857142</v>
       </c>
     </row>
@@ -7531,15 +8018,15 @@
         <v>6</v>
       </c>
       <c r="I179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1037735849056605</v>
       </c>
       <c r="J179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2044025157232705</v>
       </c>
       <c r="K179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2044025157232705</v>
       </c>
     </row>
@@ -7566,15 +8053,15 @@
         <v>6</v>
       </c>
       <c r="I180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5583941605839415</v>
       </c>
       <c r="J180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3978102189781021</v>
       </c>
       <c r="K180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3978102189781021</v>
       </c>
     </row>
@@ -7601,15 +8088,15 @@
         <v>6</v>
       </c>
       <c r="I181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.5333333333333334</v>
       </c>
       <c r="J181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4755555555555555</v>
       </c>
       <c r="K181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.471111111111111</v>
       </c>
     </row>
@@ -7636,15 +8123,15 @@
         <v>6</v>
       </c>
       <c r="I182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0265486725663717</v>
       </c>
       <c r="J182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.5044247787610618</v>
       </c>
       <c r="K182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5044247787610618</v>
       </c>
     </row>
@@ -7671,15 +8158,15 @@
         <v>6</v>
       </c>
       <c r="I183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0636042402826855</v>
       </c>
       <c r="J183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0636042402826855</v>
       </c>
       <c r="K183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0636042402826855</v>
       </c>
     </row>
@@ -7706,15 +8193,15 @@
         <v>6</v>
       </c>
       <c r="I184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1467576791808873</v>
       </c>
       <c r="J184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2593856655290103</v>
       </c>
       <c r="K184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2593856655290103</v>
       </c>
     </row>
@@ -7741,15 +8228,15 @@
         <v>6</v>
       </c>
       <c r="I185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3173431734317342</v>
       </c>
       <c r="J185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.2435424354243543</v>
       </c>
       <c r="K185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.2435424354243543</v>
       </c>
     </row>
@@ -7776,15 +8263,15 @@
         <v>6</v>
       </c>
       <c r="I186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.3873873873873874</v>
       </c>
       <c r="J186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.3873873873873874</v>
       </c>
       <c r="K186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3873873873873874</v>
       </c>
     </row>
@@ -7811,15 +8298,15 @@
         <v>6</v>
       </c>
       <c r="I187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1265060240963856</v>
       </c>
       <c r="J187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0602409638554218</v>
       </c>
       <c r="K187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0602409638554218</v>
       </c>
     </row>
@@ -7846,15 +8333,15 @@
         <v>6</v>
       </c>
       <c r="I188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0596026490066226</v>
       </c>
       <c r="J188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0596026490066226</v>
       </c>
       <c r="K188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0596026490066226</v>
       </c>
     </row>
@@ -7881,15 +8368,15 @@
         <v>6</v>
       </c>
       <c r="I189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7916,15 +8403,15 @@
         <v>6</v>
       </c>
       <c r="I190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1153846153846154</v>
       </c>
       <c r="J190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.0961538461538463</v>
       </c>
       <c r="K190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0721153846153846</v>
       </c>
     </row>
@@ -7951,15 +8438,15 @@
         <v>6</v>
       </c>
       <c r="I191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.6521739130434783</v>
       </c>
       <c r="K191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.6521739130434783</v>
       </c>
     </row>
@@ -7986,15 +8473,15 @@
         <v>6</v>
       </c>
       <c r="I192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.2767857142857142</v>
       </c>
       <c r="J192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.1607142857142858</v>
       </c>
       <c r="K192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1607142857142858</v>
       </c>
     </row>
@@ -8021,15 +8508,15 @@
         <v>6</v>
       </c>
       <c r="I193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1775362318840579</v>
       </c>
       <c r="J193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.036231884057971</v>
       </c>
       <c r="K193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.036231884057971</v>
       </c>
     </row>
@@ -8056,15 +8543,15 @@
         <v>6</v>
       </c>
       <c r="I194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.6016260162601625</v>
       </c>
       <c r="J194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.4837398373983739</v>
       </c>
       <c r="K194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4837398373983739</v>
       </c>
     </row>
@@ -8091,15 +8578,15 @@
         <v>6</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I258" si="9">D195/C195</f>
+        <f t="shared" ref="I195:I258" si="12">D195/C195</f>
         <v>1.0859106529209621</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J258" si="10">E195/C195</f>
+        <f t="shared" ref="J195:J258" si="13">E195/C195</f>
         <v>1.0584192439862543</v>
       </c>
       <c r="K195">
-        <f t="shared" ref="K195:K258" si="11">F195/C195</f>
+        <f t="shared" ref="K195:K258" si="14">F195/C195</f>
         <v>1.0584192439862543</v>
       </c>
     </row>
@@ -8126,15 +8613,15 @@
         <v>6</v>
       </c>
       <c r="I196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1313131313131313</v>
       </c>
       <c r="J196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1919191919191918</v>
       </c>
       <c r="K196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.106060606060606</v>
       </c>
     </row>
@@ -8161,15 +8648,15 @@
         <v>6</v>
       </c>
       <c r="I197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0347826086956522</v>
       </c>
       <c r="J197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4782608695652173</v>
       </c>
       <c r="K197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4782608695652173</v>
       </c>
     </row>
@@ -8196,15 +8683,15 @@
         <v>6</v>
       </c>
       <c r="I198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5564516129032258</v>
       </c>
       <c r="J198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1491935483870968</v>
       </c>
       <c r="K198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1491935483870968</v>
       </c>
     </row>
@@ -8231,15 +8718,15 @@
         <v>6</v>
       </c>
       <c r="I199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.185430463576159</v>
       </c>
       <c r="J199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1622516556291391</v>
       </c>
       <c r="K199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1622516556291391</v>
       </c>
     </row>
@@ -8266,15 +8753,15 @@
         <v>6</v>
       </c>
       <c r="I200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5502183406113537</v>
       </c>
       <c r="J200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.5283842794759825</v>
       </c>
       <c r="K200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5283842794759825</v>
       </c>
     </row>
@@ -8301,15 +8788,15 @@
         <v>6</v>
       </c>
       <c r="I201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.484</v>
       </c>
       <c r="J201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1719999999999999</v>
       </c>
       <c r="K201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.472</v>
       </c>
     </row>
@@ -8336,15 +8823,15 @@
         <v>7</v>
       </c>
       <c r="I202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4831932773109244</v>
       </c>
       <c r="J202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3949579831932772</v>
       </c>
       <c r="K202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2983193277310925</v>
       </c>
     </row>
@@ -8371,15 +8858,15 @@
         <v>7</v>
       </c>
       <c r="I203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2027491408934707</v>
       </c>
       <c r="J203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1305841924398625</v>
       </c>
       <c r="K203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0996563573883162</v>
       </c>
     </row>
@@ -8406,15 +8893,15 @@
         <v>7</v>
       </c>
       <c r="I204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1308411214953271</v>
       </c>
       <c r="J204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1152647975077881</v>
       </c>
       <c r="K204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.190031152647975</v>
       </c>
     </row>
@@ -8441,15 +8928,15 @@
         <v>7</v>
       </c>
       <c r="I205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0481927710843373</v>
       </c>
       <c r="J205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0030120481927711</v>
       </c>
       <c r="K205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0030120481927711</v>
       </c>
     </row>
@@ -8476,15 +8963,15 @@
         <v>7</v>
       </c>
       <c r="I206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -8511,15 +8998,15 @@
         <v>7</v>
       </c>
       <c r="I207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1454545454545455</v>
       </c>
       <c r="J207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1163636363636364</v>
       </c>
       <c r="K207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1163636363636364</v>
       </c>
     </row>
@@ -8546,15 +9033,15 @@
         <v>7</v>
       </c>
       <c r="I208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="J208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2118055555555556</v>
       </c>
       <c r="K208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2118055555555556</v>
       </c>
     </row>
@@ -8581,15 +9068,15 @@
         <v>7</v>
       </c>
       <c r="I209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6431718061674008</v>
       </c>
       <c r="K209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6872246696035242</v>
       </c>
     </row>
@@ -8616,15 +9103,15 @@
         <v>7</v>
       </c>
       <c r="I210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1614173228346456</v>
       </c>
       <c r="J210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.110236220472441</v>
       </c>
       <c r="K210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.110236220472441</v>
       </c>
     </row>
@@ -8651,15 +9138,15 @@
         <v>7</v>
       </c>
       <c r="I211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0145454545454546</v>
       </c>
       <c r="J211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4545454545454546</v>
       </c>
       <c r="K211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4545454545454546</v>
       </c>
     </row>
@@ -8686,15 +9173,15 @@
         <v>7</v>
       </c>
       <c r="I212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4329501915708813</v>
       </c>
       <c r="J212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0344827586206897</v>
       </c>
       <c r="K212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2183908045977012</v>
       </c>
     </row>
@@ -8721,15 +9208,15 @@
         <v>7</v>
       </c>
       <c r="I213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2163009404388714</v>
       </c>
       <c r="J213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1410658307210031</v>
       </c>
       <c r="K213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1410658307210031</v>
       </c>
     </row>
@@ -8756,15 +9243,15 @@
         <v>7</v>
       </c>
       <c r="I214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0464285714285715</v>
       </c>
       <c r="J214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2535714285714286</v>
       </c>
       <c r="K214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2821428571428573</v>
       </c>
     </row>
@@ -8791,15 +9278,15 @@
         <v>7</v>
       </c>
       <c r="I215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1515151515151516</v>
       </c>
       <c r="J215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.292929292929293</v>
       </c>
       <c r="K215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.292929292929293</v>
       </c>
     </row>
@@ -8826,15 +9313,15 @@
         <v>7</v>
       </c>
       <c r="I216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.083916083916084</v>
       </c>
       <c r="J216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3531468531468531</v>
       </c>
       <c r="K216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3391608391608392</v>
       </c>
     </row>
@@ -8861,15 +9348,15 @@
         <v>7</v>
       </c>
       <c r="I217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4939271255060729</v>
       </c>
       <c r="J217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4453441295546559</v>
       </c>
       <c r="K217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4089068825910931</v>
       </c>
     </row>
@@ -8896,15 +9383,15 @@
         <v>7</v>
       </c>
       <c r="I218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2758620689655173</v>
       </c>
       <c r="J218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2448275862068965</v>
       </c>
       <c r="K218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2310344827586206</v>
       </c>
     </row>
@@ -8931,15 +9418,15 @@
         <v>7</v>
       </c>
       <c r="I219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1505376344086022</v>
       </c>
       <c r="J219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3369175627240144</v>
       </c>
       <c r="K219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3369175627240144</v>
       </c>
     </row>
@@ -8966,15 +9453,15 @@
         <v>7</v>
       </c>
       <c r="I220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0772200772200773</v>
       </c>
       <c r="J220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2277992277992278</v>
       </c>
       <c r="K220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2277992277992278</v>
       </c>
     </row>
@@ -9001,15 +9488,15 @@
         <v>7</v>
       </c>
       <c r="I221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0352564102564104</v>
       </c>
       <c r="J221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0096153846153846</v>
       </c>
       <c r="K221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0096153846153846</v>
       </c>
     </row>
@@ -9036,15 +9523,15 @@
         <v>7</v>
       </c>
       <c r="I222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4007936507936507</v>
       </c>
       <c r="J222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0952380952380953</v>
       </c>
       <c r="K222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0952380952380953</v>
       </c>
     </row>
@@ -9071,15 +9558,15 @@
         <v>7</v>
       </c>
       <c r="I223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4241245136186771</v>
       </c>
       <c r="J223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2295719844357977</v>
       </c>
       <c r="K223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2295719844357977</v>
       </c>
     </row>
@@ -9106,15 +9593,15 @@
         <v>7</v>
       </c>
       <c r="I224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.46875</v>
       </c>
       <c r="J224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2265625</v>
       </c>
       <c r="K224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2265625</v>
       </c>
     </row>
@@ -9141,15 +9628,15 @@
         <v>7</v>
       </c>
       <c r="I225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2080291970802919</v>
       </c>
       <c r="J225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2299270072992701</v>
       </c>
       <c r="K225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.2299270072992701</v>
       </c>
     </row>
@@ -9176,15 +9663,15 @@
         <v>7</v>
       </c>
       <c r="I226">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0041666666666667</v>
       </c>
       <c r="J226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4208333333333334</v>
       </c>
       <c r="K226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4125000000000001</v>
       </c>
     </row>
@@ -9211,15 +9698,15 @@
         <v>7</v>
       </c>
       <c r="I227">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0892857142857142</v>
       </c>
       <c r="J227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3321428571428571</v>
       </c>
       <c r="K227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3321428571428571</v>
       </c>
     </row>
@@ -9246,15 +9733,15 @@
         <v>7</v>
       </c>
       <c r="I228">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2150537634408602</v>
       </c>
       <c r="J228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.053763440860215</v>
       </c>
       <c r="K228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0286738351254481</v>
       </c>
     </row>
@@ -9281,15 +9768,15 @@
         <v>7</v>
       </c>
       <c r="I229">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1868131868131868</v>
       </c>
       <c r="J229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0402930402930404</v>
       </c>
       <c r="K229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0732600732600732</v>
       </c>
     </row>
@@ -9316,15 +9803,15 @@
         <v>7</v>
       </c>
       <c r="I230">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3671875</v>
       </c>
       <c r="J230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.14453125</v>
       </c>
       <c r="K230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1171875</v>
       </c>
     </row>
@@ -9351,15 +9838,15 @@
         <v>7</v>
       </c>
       <c r="I231">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2613240418118468</v>
       </c>
       <c r="J231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0592334494773519</v>
       </c>
       <c r="K231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0592334494773519</v>
       </c>
     </row>
@@ -9386,15 +9873,15 @@
         <v>7</v>
       </c>
       <c r="I232">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4538152610441768</v>
       </c>
       <c r="J232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4497991967871486</v>
       </c>
       <c r="K232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4497991967871486</v>
       </c>
     </row>
@@ -9421,15 +9908,15 @@
         <v>7</v>
       </c>
       <c r="I233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0127118644067796</v>
       </c>
       <c r="J233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0127118644067796</v>
       </c>
       <c r="K233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.097457627118644</v>
       </c>
     </row>
@@ -9456,15 +9943,15 @@
         <v>7</v>
       </c>
       <c r="I234">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4901185770750989</v>
       </c>
       <c r="J234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.150197628458498</v>
       </c>
       <c r="K234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.150197628458498</v>
       </c>
     </row>
@@ -9491,15 +9978,15 @@
         <v>7</v>
       </c>
       <c r="I235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.36996336996337</v>
       </c>
       <c r="J235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0732600732600732</v>
       </c>
       <c r="K235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0732600732600732</v>
       </c>
     </row>
@@ -9526,15 +10013,15 @@
         <v>7</v>
       </c>
       <c r="I236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1506410256410255</v>
       </c>
       <c r="J236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0576923076923077</v>
       </c>
       <c r="K236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0576923076923077</v>
       </c>
     </row>
@@ -9561,15 +10048,15 @@
         <v>7</v>
       </c>
       <c r="I237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0567685589519651</v>
       </c>
       <c r="J237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1135371179039302</v>
       </c>
       <c r="K237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1135371179039302</v>
       </c>
     </row>
@@ -9596,15 +10083,15 @@
         <v>7</v>
       </c>
       <c r="I238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4199288256227758</v>
       </c>
       <c r="J238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3629893238434163</v>
       </c>
       <c r="K238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3629893238434163</v>
       </c>
     </row>
@@ -9631,15 +10118,15 @@
         <v>7</v>
       </c>
       <c r="I239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.027906976744186</v>
       </c>
       <c r="J239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4790697674418605</v>
       </c>
       <c r="K239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4232558139534883</v>
       </c>
     </row>
@@ -9666,15 +10153,15 @@
         <v>7</v>
       </c>
       <c r="I240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0394265232974911</v>
       </c>
       <c r="J240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -9701,15 +10188,15 @@
         <v>7</v>
       </c>
       <c r="I241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4899598393574298</v>
       </c>
       <c r="J241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3855421686746987</v>
       </c>
       <c r="K241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3654618473895583</v>
       </c>
     </row>
@@ -9736,15 +10223,15 @@
         <v>7</v>
       </c>
       <c r="I242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="J242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.07</v>
       </c>
       <c r="K242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.07</v>
       </c>
     </row>
@@ -9771,15 +10258,15 @@
         <v>7</v>
       </c>
       <c r="I243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.3612167300380229</v>
       </c>
       <c r="J243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0532319391634981</v>
       </c>
       <c r="K243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0532319391634981</v>
       </c>
     </row>
@@ -9806,15 +10293,15 @@
         <v>7</v>
       </c>
       <c r="I244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.179245283018868</v>
       </c>
       <c r="J244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1556603773584906</v>
       </c>
       <c r="K244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1650943396226414</v>
       </c>
     </row>
@@ -9841,15 +10328,15 @@
         <v>7</v>
       </c>
       <c r="I245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3607843137254902</v>
       </c>
       <c r="K245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3607843137254902</v>
       </c>
     </row>
@@ -9876,15 +10363,15 @@
         <v>7</v>
       </c>
       <c r="I246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.4408163265306122</v>
       </c>
       <c r="J246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.2163265306122448</v>
       </c>
       <c r="K246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3551020408163266</v>
       </c>
     </row>
@@ -9911,15 +10398,15 @@
         <v>7</v>
       </c>
       <c r="I247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0801282051282051</v>
       </c>
       <c r="J247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1987179487179487</v>
       </c>
       <c r="K247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1987179487179487</v>
       </c>
     </row>
@@ -9946,15 +10433,15 @@
         <v>7</v>
       </c>
       <c r="I248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1296928327645051</v>
       </c>
       <c r="J248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.1877133105802047</v>
       </c>
       <c r="K248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.1877133105802047</v>
       </c>
     </row>
@@ -9981,15 +10468,15 @@
         <v>7</v>
       </c>
       <c r="I249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0291666666666666</v>
       </c>
       <c r="J249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0291666666666666</v>
       </c>
       <c r="K249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0291666666666666</v>
       </c>
     </row>
@@ -10016,15 +10503,15 @@
         <v>7</v>
       </c>
       <c r="I250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1993127147766323</v>
       </c>
       <c r="J250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4192439862542956</v>
       </c>
       <c r="K250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4192439862542956</v>
       </c>
     </row>
@@ -10051,15 +10538,15 @@
         <v>7</v>
       </c>
       <c r="I251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.064516129032258</v>
       </c>
       <c r="J251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.3963133640552996</v>
       </c>
       <c r="K251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3963133640552996</v>
       </c>
     </row>
@@ -10086,15 +10573,15 @@
         <v>8</v>
       </c>
       <c r="I252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1565836298932384</v>
       </c>
       <c r="J252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0284697508896796</v>
       </c>
       <c r="K252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0284697508896796</v>
       </c>
     </row>
@@ -10121,15 +10608,15 @@
         <v>8</v>
       </c>
       <c r="I253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.5681818181818181</v>
       </c>
       <c r="J253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4954545454545454</v>
       </c>
       <c r="K253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.4636363636363636</v>
       </c>
     </row>
@@ -10156,15 +10643,15 @@
         <v>8</v>
       </c>
       <c r="I254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2727272727272727</v>
       </c>
       <c r="J254">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0389610389610389</v>
       </c>
       <c r="K254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0389610389610389</v>
       </c>
     </row>
@@ -10191,15 +10678,15 @@
         <v>8</v>
       </c>
       <c r="I255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.6382978723404256</v>
       </c>
       <c r="J255">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.4851063829787234</v>
       </c>
       <c r="K255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.3446808510638297</v>
       </c>
     </row>
@@ -10226,15 +10713,15 @@
         <v>8</v>
       </c>
       <c r="I256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J256">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.554585152838428</v>
       </c>
       <c r="K256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.5414847161572052</v>
       </c>
     </row>
@@ -10261,15 +10748,15 @@
         <v>8</v>
       </c>
       <c r="I257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.2943396226415094</v>
       </c>
       <c r="J257">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.0943396226415094</v>
       </c>
       <c r="K257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.0943396226415094</v>
       </c>
     </row>
@@ -10296,15 +10783,15 @@
         <v>8</v>
       </c>
       <c r="I258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0458333333333334</v>
       </c>
       <c r="J258">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6375</v>
       </c>
       <c r="K258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1.6375</v>
       </c>
     </row>
@@ -10331,15 +10818,15 @@
         <v>8</v>
       </c>
       <c r="I259">
-        <f t="shared" ref="I259:I322" si="12">D259/C259</f>
+        <f t="shared" ref="I259:I322" si="15">D259/C259</f>
         <v>1.1632653061224489</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259:J322" si="13">E259/C259</f>
+        <f t="shared" ref="J259:J322" si="16">E259/C259</f>
         <v>1.2108843537414966</v>
       </c>
       <c r="K259">
-        <f t="shared" ref="K259:K322" si="14">F259/C259</f>
+        <f t="shared" ref="K259:K322" si="17">F259/C259</f>
         <v>1.2619047619047619</v>
       </c>
     </row>
@@ -10366,15 +10853,15 @@
         <v>8</v>
       </c>
       <c r="I260">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5731707317073171</v>
       </c>
       <c r="J260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0975609756097562</v>
       </c>
       <c r="K260">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0975609756097562</v>
       </c>
     </row>
@@ -10401,15 +10888,15 @@
         <v>8</v>
       </c>
       <c r="I261">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4007936507936507</v>
       </c>
       <c r="J261">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1984126984126984</v>
       </c>
       <c r="K261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0952380952380953</v>
       </c>
     </row>
@@ -10436,15 +10923,15 @@
         <v>8</v>
       </c>
       <c r="I262">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6885964912280702</v>
       </c>
       <c r="J262">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6008771929824561</v>
       </c>
       <c r="K262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3421052631578947</v>
       </c>
     </row>
@@ -10471,15 +10958,15 @@
         <v>8</v>
       </c>
       <c r="I263">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0838509316770186</v>
       </c>
       <c r="J263">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0031055900621118</v>
       </c>
       <c r="K263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1180124223602483</v>
       </c>
     </row>
@@ -10506,15 +10993,15 @@
         <v>8</v>
       </c>
       <c r="I264">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0865800865800865</v>
       </c>
       <c r="J264">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0865800865800865</v>
       </c>
       <c r="K264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0865800865800865</v>
       </c>
     </row>
@@ -10541,15 +11028,15 @@
         <v>8</v>
       </c>
       <c r="I265">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1346153846153846</v>
       </c>
       <c r="J265">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5038461538461538</v>
       </c>
       <c r="K265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5038461538461538</v>
       </c>
     </row>
@@ -10576,15 +11063,15 @@
         <v>8</v>
       </c>
       <c r="I266">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4691358024691359</v>
       </c>
       <c r="J266">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1975308641975309</v>
       </c>
       <c r="K266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1975308641975309</v>
       </c>
     </row>
@@ -10611,15 +11098,15 @@
         <v>8</v>
       </c>
       <c r="I267">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4772727272727273</v>
       </c>
       <c r="J267">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2196969696969697</v>
       </c>
       <c r="K267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1212121212121211</v>
       </c>
     </row>
@@ -10646,15 +11133,15 @@
         <v>8</v>
       </c>
       <c r="I268">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5185185185185186</v>
       </c>
       <c r="J268">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1399176954732511</v>
       </c>
       <c r="K268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1399176954732511</v>
       </c>
     </row>
@@ -10681,15 +11168,15 @@
         <v>8</v>
       </c>
       <c r="I269">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="J269">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.03</v>
       </c>
       <c r="K269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.03</v>
       </c>
     </row>
@@ -10716,15 +11203,15 @@
         <v>8</v>
       </c>
       <c r="I270">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3644444444444443</v>
       </c>
       <c r="J270">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2488888888888889</v>
       </c>
       <c r="K270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2488888888888889</v>
       </c>
     </row>
@@ -10751,15 +11238,15 @@
         <v>8</v>
       </c>
       <c r="I271">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.018450184501845</v>
       </c>
       <c r="J271">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2730627306273063</v>
       </c>
       <c r="K271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2841328413284132</v>
       </c>
     </row>
@@ -10786,15 +11273,15 @@
         <v>8</v>
       </c>
       <c r="I272">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2761194029850746</v>
       </c>
       <c r="J272">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1380597014925373</v>
       </c>
       <c r="K272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0335820895522387</v>
       </c>
     </row>
@@ -10821,15 +11308,15 @@
         <v>8</v>
       </c>
       <c r="I273">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2043010752688172</v>
       </c>
       <c r="J273">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3440860215053763</v>
       </c>
       <c r="K273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2688172043010753</v>
       </c>
     </row>
@@ -10856,15 +11343,15 @@
         <v>8</v>
       </c>
       <c r="I274">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3106060606060606</v>
       </c>
       <c r="J274">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5227272727272727</v>
       </c>
       <c r="K274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1363636363636365</v>
       </c>
     </row>
@@ -10891,15 +11378,15 @@
         <v>8</v>
       </c>
       <c r="I275">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1218637992831542</v>
       </c>
       <c r="J275">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0896057347670252</v>
       </c>
       <c r="K275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0896057347670252</v>
       </c>
     </row>
@@ -10926,15 +11413,15 @@
         <v>8</v>
       </c>
       <c r="I276">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6287128712871286</v>
       </c>
       <c r="J276">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5643564356435644</v>
       </c>
       <c r="K276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3118811881188119</v>
       </c>
     </row>
@@ -10961,15 +11448,15 @@
         <v>8</v>
       </c>
       <c r="I277">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4234875444839858</v>
       </c>
       <c r="J277">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2277580071174377</v>
       </c>
       <c r="K277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2811387900355873</v>
       </c>
     </row>
@@ -10996,15 +11483,15 @@
         <v>8</v>
       </c>
       <c r="I278">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4402985074626866</v>
       </c>
       <c r="J278">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1044776119402986</v>
       </c>
       <c r="K278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0373134328358209</v>
       </c>
     </row>
@@ -11031,15 +11518,15 @@
         <v>8</v>
       </c>
       <c r="I279">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6160000000000001</v>
       </c>
       <c r="J279">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.492</v>
       </c>
       <c r="K279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.468</v>
       </c>
     </row>
@@ -11066,15 +11553,15 @@
         <v>8</v>
       </c>
       <c r="I280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0952380952380953</v>
       </c>
       <c r="J280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1468253968253967</v>
       </c>
       <c r="K280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1865079365079365</v>
       </c>
     </row>
@@ -11101,15 +11588,15 @@
         <v>8</v>
       </c>
       <c r="I281">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3125</v>
       </c>
       <c r="J281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.19140625</v>
       </c>
       <c r="K281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.19140625</v>
       </c>
     </row>
@@ -11136,15 +11623,15 @@
         <v>8</v>
       </c>
       <c r="I282">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3175675675675675</v>
       </c>
       <c r="J282">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0810810810810811</v>
       </c>
       <c r="K282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0810810810810811</v>
       </c>
     </row>
@@ -11171,15 +11658,15 @@
         <v>8</v>
       </c>
       <c r="I283">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0705394190871369</v>
       </c>
       <c r="J283">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.0165975103734439</v>
       </c>
       <c r="K283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.053941908713693</v>
       </c>
     </row>
@@ -11206,15 +11693,15 @@
         <v>8</v>
       </c>
       <c r="I284">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5354330708661417</v>
       </c>
       <c r="J284">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3267716535433072</v>
       </c>
       <c r="K284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2874015748031495</v>
       </c>
     </row>
@@ -11241,15 +11728,15 @@
         <v>8</v>
       </c>
       <c r="I285">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1390728476821192</v>
       </c>
       <c r="J285">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1390728476821192</v>
       </c>
       <c r="K285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.0496688741721854</v>
       </c>
     </row>
@@ -11276,15 +11763,15 @@
         <v>8</v>
       </c>
       <c r="I286">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0188679245283019</v>
       </c>
       <c r="J286">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.75</v>
       </c>
       <c r="K286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.75</v>
       </c>
     </row>
@@ -11311,15 +11798,15 @@
         <v>8</v>
       </c>
       <c r="I287">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4047619047619047</v>
       </c>
       <c r="J287">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1349206349206349</v>
       </c>
       <c r="K287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1349206349206349</v>
       </c>
     </row>
@@ -11346,15 +11833,15 @@
         <v>8</v>
       </c>
       <c r="I288">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5095785440613028</v>
       </c>
       <c r="J288">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4674329501915708</v>
       </c>
       <c r="K288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1340996168582376</v>
       </c>
     </row>
@@ -11381,15 +11868,15 @@
         <v>8</v>
       </c>
       <c r="I289">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0597014925373134</v>
       </c>
       <c r="J289">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.414179104477612</v>
       </c>
       <c r="K289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2611940298507462</v>
       </c>
     </row>
@@ -11416,15 +11903,15 @@
         <v>8</v>
       </c>
       <c r="I290">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3611111111111112</v>
       </c>
       <c r="J290">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4206349206349207</v>
       </c>
       <c r="K290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1309523809523809</v>
       </c>
     </row>
@@ -11451,15 +11938,15 @@
         <v>8</v>
       </c>
       <c r="I291">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1284046692607004</v>
       </c>
       <c r="J291">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1284046692607004</v>
       </c>
       <c r="K291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1828793774319066</v>
       </c>
     </row>
@@ -11486,15 +11973,15 @@
         <v>8</v>
       </c>
       <c r="I292">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2868525896414342</v>
       </c>
       <c r="J292">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1593625498007969</v>
       </c>
       <c r="K292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1593625498007969</v>
       </c>
     </row>
@@ -11521,15 +12008,15 @@
         <v>8</v>
       </c>
       <c r="I293">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3630136986301369</v>
       </c>
       <c r="J293">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2636986301369864</v>
       </c>
       <c r="K293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2636986301369864</v>
       </c>
     </row>
@@ -11556,15 +12043,15 @@
         <v>8</v>
       </c>
       <c r="I294">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5414847161572052</v>
       </c>
       <c r="J294">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5458515283842795</v>
       </c>
       <c r="K294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2620087336244541</v>
       </c>
     </row>
@@ -11591,15 +12078,15 @@
         <v>8</v>
       </c>
       <c r="I295">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1636363636363636</v>
       </c>
       <c r="J295">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5418181818181818</v>
       </c>
       <c r="K295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2327272727272727</v>
       </c>
     </row>
@@ -11626,15 +12113,15 @@
         <v>8</v>
       </c>
       <c r="I296">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1535836177474403</v>
       </c>
       <c r="J296">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1228668941979523</v>
       </c>
       <c r="K296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1228668941979523</v>
       </c>
     </row>
@@ -11661,15 +12148,15 @@
         <v>8</v>
       </c>
       <c r="I297">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.260377358490566</v>
       </c>
       <c r="J297">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3547169811320754</v>
       </c>
       <c r="K297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3547169811320754</v>
       </c>
     </row>
@@ -11696,15 +12183,15 @@
         <v>8</v>
       </c>
       <c r="I298">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0863787375415281</v>
       </c>
       <c r="J298">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2159468438538206</v>
       </c>
       <c r="K298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2159468438538206</v>
       </c>
     </row>
@@ -11731,15 +12218,15 @@
         <v>8</v>
       </c>
       <c r="I299">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5</v>
       </c>
       <c r="J299">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4296875</v>
       </c>
       <c r="K299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.203125</v>
       </c>
     </row>
@@ -11766,15 +12253,15 @@
         <v>8</v>
       </c>
       <c r="I300">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.48046875</v>
       </c>
       <c r="J300">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.34765625</v>
       </c>
       <c r="K300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.34765625</v>
       </c>
     </row>
@@ -11801,15 +12288,15 @@
         <v>8</v>
       </c>
       <c r="I301">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.0778688524590163</v>
       </c>
       <c r="J301">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1229508196721312</v>
       </c>
       <c r="K301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4754098360655739</v>
       </c>
     </row>
@@ -11836,15 +12323,15 @@
         <v>9</v>
       </c>
       <c r="I302">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3857142857142857</v>
       </c>
       <c r="J302">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1857142857142857</v>
       </c>
       <c r="K302">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2464285714285714</v>
       </c>
     </row>
@@ -11871,15 +12358,15 @@
         <v>9</v>
       </c>
       <c r="I303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4146341463414633</v>
       </c>
       <c r="J303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.4308943089430894</v>
       </c>
       <c r="K303">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2845528455284554</v>
       </c>
     </row>
@@ -11906,15 +12393,15 @@
         <v>9</v>
       </c>
       <c r="I304">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5653846153846154</v>
       </c>
       <c r="J304">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3538461538461539</v>
       </c>
       <c r="K304">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3038461538461539</v>
       </c>
     </row>
@@ -11941,15 +12428,15 @@
         <v>9</v>
       </c>
       <c r="I305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2462686567164178</v>
       </c>
       <c r="J305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2350746268656716</v>
       </c>
       <c r="K305">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2686567164179106</v>
       </c>
     </row>
@@ -11976,15 +12463,15 @@
         <v>9</v>
       </c>
       <c r="I306">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4630350194552528</v>
       </c>
       <c r="J306">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1167315175097277</v>
       </c>
       <c r="K306">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1206225680933852</v>
       </c>
     </row>
@@ -12011,15 +12498,15 @@
         <v>9</v>
       </c>
       <c r="I307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2065217391304348</v>
       </c>
       <c r="J307">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.326086956521739</v>
       </c>
       <c r="K307">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2898550724637681</v>
       </c>
     </row>
@@ -12046,15 +12533,15 @@
         <v>9</v>
       </c>
       <c r="I308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.6463414634146341</v>
       </c>
       <c r="J308">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.5487804878048781</v>
       </c>
       <c r="K308">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.5772357723577235</v>
       </c>
     </row>
@@ -12081,15 +12568,15 @@
         <v>9</v>
       </c>
       <c r="I309">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1890756302521008</v>
       </c>
       <c r="J309">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6386554621848739</v>
       </c>
       <c r="K309">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6050420168067228</v>
       </c>
     </row>
@@ -12116,15 +12603,15 @@
         <v>9</v>
       </c>
       <c r="I310">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1391304347826088</v>
       </c>
       <c r="J310">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1086956521739131</v>
       </c>
       <c r="K310">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1173913043478261</v>
       </c>
     </row>
@@ -12151,15 +12638,15 @@
         <v>9</v>
       </c>
       <c r="I311">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.419607843137255</v>
       </c>
       <c r="J311">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2352941176470589</v>
       </c>
       <c r="K311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4039215686274509</v>
       </c>
     </row>
@@ -12186,15 +12673,15 @@
         <v>9</v>
       </c>
       <c r="I312">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2625482625482625</v>
       </c>
       <c r="J312">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3899613899613901</v>
       </c>
       <c r="K312">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3745173745173744</v>
       </c>
     </row>
@@ -12221,15 +12708,15 @@
         <v>9</v>
       </c>
       <c r="I313">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2113207547169811</v>
       </c>
       <c r="J313">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2113207547169811</v>
       </c>
       <c r="K313">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3320754716981131</v>
       </c>
     </row>
@@ -12256,15 +12743,15 @@
         <v>9</v>
       </c>
       <c r="I314">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4347826086956521</v>
       </c>
       <c r="J314">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.2845849802371541</v>
       </c>
       <c r="K314">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4703557312252964</v>
       </c>
     </row>
@@ -12291,15 +12778,15 @@
         <v>9</v>
       </c>
       <c r="I315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.1107011070110702</v>
       </c>
       <c r="J315">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3911439114391144</v>
       </c>
       <c r="K315">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4501845018450183</v>
       </c>
     </row>
@@ -12326,15 +12813,15 @@
         <v>9</v>
       </c>
       <c r="I316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3263888888888888</v>
       </c>
       <c r="J316">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.21875</v>
       </c>
       <c r="K316">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.3159722222222223</v>
       </c>
     </row>
@@ -12361,15 +12848,15 @@
         <v>9</v>
       </c>
       <c r="I317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J317">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6680497925311204</v>
       </c>
       <c r="K317">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6307053941908713</v>
       </c>
     </row>
@@ -12396,15 +12883,15 @@
         <v>9</v>
       </c>
       <c r="I318">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2934362934362935</v>
       </c>
       <c r="J318">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1042471042471043</v>
       </c>
       <c r="K318">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.2779922779922781</v>
       </c>
     </row>
@@ -12431,15 +12918,15 @@
         <v>9</v>
       </c>
       <c r="I319">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.439446366782007</v>
       </c>
       <c r="J319">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1418685121107266</v>
       </c>
       <c r="K319">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.1418685121107266</v>
       </c>
     </row>
@@ -12466,15 +12953,15 @@
         <v>9</v>
       </c>
       <c r="I320">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.2379032258064515</v>
       </c>
       <c r="J320">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.3629032258064515</v>
       </c>
       <c r="K320">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.375</v>
       </c>
     </row>
@@ -12501,15 +12988,15 @@
         <v>9</v>
       </c>
       <c r="I321">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.3653136531365313</v>
       </c>
       <c r="J321">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.6937269372693726</v>
       </c>
       <c r="K321">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.4464944649446494</v>
       </c>
     </row>
@@ -12536,15 +13023,15 @@
         <v>9</v>
       </c>
       <c r="I322">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.4517374517374517</v>
       </c>
       <c r="J322">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1.1081081081081081</v>
       </c>
       <c r="K322">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.274131274131274</v>
       </c>
     </row>
@@ -12571,15 +13058,15 @@
         <v>9</v>
       </c>
       <c r="I323">
-        <f t="shared" ref="I323:I386" si="15">D323/C323</f>
+        <f t="shared" ref="I323:I386" si="18">D323/C323</f>
         <v>1.2528735632183907</v>
       </c>
       <c r="J323">
-        <f t="shared" ref="J323:J386" si="16">E323/C323</f>
+        <f t="shared" ref="J323:J386" si="19">E323/C323</f>
         <v>1.2375478927203065</v>
       </c>
       <c r="K323">
-        <f t="shared" ref="K323:K386" si="17">F323/C323</f>
+        <f t="shared" ref="K323:K386" si="20">F323/C323</f>
         <v>1.2490421455938698</v>
       </c>
     </row>
@@ -12606,15 +13093,15 @@
         <v>9</v>
       </c>
       <c r="I324">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4</v>
       </c>
       <c r="J324">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3617021276595744</v>
       </c>
       <c r="K324">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5617021276595744</v>
       </c>
     </row>
@@ -12641,15 +13128,15 @@
         <v>9</v>
       </c>
       <c r="I325">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5583941605839415</v>
       </c>
       <c r="J325">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3868613138686132</v>
       </c>
       <c r="K325">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3978102189781021</v>
       </c>
     </row>
@@ -12676,15 +13163,15 @@
         <v>9</v>
       </c>
       <c r="I326">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3410852713178294</v>
       </c>
       <c r="J326">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3914728682170543</v>
       </c>
       <c r="K326">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1899224806201549</v>
       </c>
     </row>
@@ -12711,15 +13198,15 @@
         <v>9</v>
       </c>
       <c r="I327">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3212996389891696</v>
       </c>
       <c r="J327">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2310469314079422</v>
       </c>
       <c r="K327">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2707581227436824</v>
       </c>
     </row>
@@ -12746,15 +13233,15 @@
         <v>9</v>
       </c>
       <c r="I328">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3714285714285714</v>
       </c>
       <c r="J328">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.616326530612245</v>
       </c>
       <c r="K328">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3306122448979592</v>
       </c>
     </row>
@@ -12781,15 +13268,15 @@
         <v>9</v>
       </c>
       <c r="I329">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4274809160305344</v>
       </c>
       <c r="J329">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7557251908396947</v>
       </c>
       <c r="K329">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.717557251908397</v>
       </c>
     </row>
@@ -12816,15 +13303,15 @@
         <v>9</v>
       </c>
       <c r="I330">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1909722222222223</v>
       </c>
       <c r="J330">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1805555555555556</v>
       </c>
       <c r="K330">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2986111111111112</v>
       </c>
     </row>
@@ -12851,15 +13338,15 @@
         <v>9</v>
       </c>
       <c r="I331">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3134328358208955</v>
       </c>
       <c r="J331">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3544776119402986</v>
       </c>
       <c r="K331">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3656716417910448</v>
       </c>
     </row>
@@ -12886,15 +13373,15 @@
         <v>9</v>
       </c>
       <c r="I332">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1214574898785425</v>
       </c>
       <c r="J332">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.214574898785425</v>
       </c>
       <c r="K332">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2307692307692308</v>
       </c>
     </row>
@@ -12921,15 +13408,15 @@
         <v>9</v>
       </c>
       <c r="I333">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5992779783393503</v>
       </c>
       <c r="J333">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2635379061371841</v>
       </c>
       <c r="K333">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0866425992779782</v>
       </c>
     </row>
@@ -12956,15 +13443,15 @@
         <v>9</v>
       </c>
       <c r="I334">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5230125523012552</v>
       </c>
       <c r="J334">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2970711297071129</v>
       </c>
       <c r="K334">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.8117154811715481</v>
       </c>
     </row>
@@ -12991,15 +13478,15 @@
         <v>9</v>
       </c>
       <c r="I335">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0830324909747293</v>
       </c>
       <c r="J335">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2166064981949458</v>
       </c>
       <c r="K335">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3574007220216606</v>
       </c>
     </row>
@@ -13026,15 +13513,15 @@
         <v>9</v>
       </c>
       <c r="I336">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3688212927756653</v>
       </c>
       <c r="J336">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0722433460076046</v>
       </c>
       <c r="K336">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.349809885931559</v>
       </c>
     </row>
@@ -13061,15 +13548,15 @@
         <v>9</v>
       </c>
       <c r="I337">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3215686274509804</v>
       </c>
       <c r="J337">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2745098039215685</v>
       </c>
       <c r="K337">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.223529411764706</v>
       </c>
     </row>
@@ -13096,15 +13583,15 @@
         <v>9</v>
       </c>
       <c r="I338">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2046511627906977</v>
       </c>
       <c r="J338">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1674418604651162</v>
       </c>
       <c r="K338">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.1348837209302325</v>
       </c>
     </row>
@@ -13131,15 +13618,15 @@
         <v>9</v>
       </c>
       <c r="I339">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="J339">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.8</v>
       </c>
       <c r="K339">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4074074074074074</v>
       </c>
     </row>
@@ -13166,15 +13653,15 @@
         <v>9</v>
       </c>
       <c r="I340">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4404761904761905</v>
       </c>
       <c r="J340">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2976190476190477</v>
       </c>
       <c r="K340">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7222222222222223</v>
       </c>
     </row>
@@ -13201,15 +13688,15 @@
         <v>9</v>
       </c>
       <c r="I341">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1921708185053381</v>
       </c>
       <c r="J341">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0960854092526691</v>
       </c>
       <c r="K341">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.0960854092526691</v>
       </c>
     </row>
@@ -13236,15 +13723,15 @@
         <v>9</v>
       </c>
       <c r="I342">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1737451737451738</v>
       </c>
       <c r="J342">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3281853281853282</v>
       </c>
       <c r="K342">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2123552123552124</v>
       </c>
     </row>
@@ -13271,15 +13758,15 @@
         <v>9</v>
       </c>
       <c r="I343">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1642335766423357</v>
       </c>
       <c r="J343">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.051094890510949</v>
       </c>
       <c r="K343">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.051094890510949</v>
       </c>
     </row>
@@ -13306,15 +13793,15 @@
         <v>9</v>
       </c>
       <c r="I344">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5560344827586208</v>
       </c>
       <c r="J344">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4353448275862069</v>
       </c>
       <c r="K344">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4612068965517242</v>
       </c>
     </row>
@@ -13341,15 +13828,15 @@
         <v>9</v>
       </c>
       <c r="I345">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0202429149797572</v>
       </c>
       <c r="J345">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6599190283400809</v>
       </c>
       <c r="K345">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6437246963562753</v>
       </c>
     </row>
@@ -13376,15 +13863,15 @@
         <v>9</v>
       </c>
       <c r="I346">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4014598540145986</v>
       </c>
       <c r="J346">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3503649635036497</v>
       </c>
       <c r="K346">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2116788321167884</v>
       </c>
     </row>
@@ -13411,15 +13898,15 @@
         <v>9</v>
       </c>
       <c r="I347">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2391304347826086</v>
       </c>
       <c r="J347">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1847826086956521</v>
       </c>
       <c r="K347">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2355072463768115</v>
       </c>
     </row>
@@ -13446,15 +13933,15 @@
         <v>9</v>
       </c>
       <c r="I348">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2152466367713004</v>
       </c>
       <c r="J348">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1704035874439462</v>
       </c>
       <c r="K348">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3094170403587444</v>
       </c>
     </row>
@@ -13481,15 +13968,15 @@
         <v>9</v>
       </c>
       <c r="I349">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2804054054054055</v>
       </c>
       <c r="J349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2162162162162162</v>
       </c>
       <c r="K349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3614864864864864</v>
       </c>
     </row>
@@ -13516,15 +14003,15 @@
         <v>9</v>
       </c>
       <c r="I350">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2413793103448276</v>
       </c>
       <c r="J350">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0931034482758621</v>
       </c>
       <c r="K350">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2068965517241379</v>
       </c>
     </row>
@@ -13551,15 +14038,15 @@
         <v>9</v>
       </c>
       <c r="I351">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3790613718411553</v>
       </c>
       <c r="J351">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.1949458483754514</v>
       </c>
       <c r="K351">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3790613718411553</v>
       </c>
     </row>
@@ -13586,15 +14073,15 @@
         <v>10</v>
       </c>
       <c r="I352">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.482905982905983</v>
       </c>
       <c r="J352">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4658119658119657</v>
       </c>
       <c r="K352">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4914529914529915</v>
       </c>
     </row>
@@ -13621,15 +14108,15 @@
         <v>10</v>
       </c>
       <c r="I353">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3346938775510204</v>
       </c>
       <c r="J353">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4285714285714286</v>
       </c>
       <c r="K353">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4040816326530612</v>
       </c>
     </row>
@@ -13656,15 +14143,15 @@
         <v>10</v>
       </c>
       <c r="I354">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1486988847583643</v>
       </c>
       <c r="J354">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3977695167286246</v>
       </c>
       <c r="K354">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3977695167286246</v>
       </c>
     </row>
@@ -13691,15 +14178,15 @@
         <v>10</v>
       </c>
       <c r="I355">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0082304526748971</v>
       </c>
       <c r="J355">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3374485596707819</v>
       </c>
       <c r="K355">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3292181069958848</v>
       </c>
     </row>
@@ -13726,15 +14213,15 @@
         <v>10</v>
       </c>
       <c r="I356">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.248062015503876</v>
       </c>
       <c r="J356">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5</v>
       </c>
       <c r="K356">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2596899224806202</v>
       </c>
     </row>
@@ -13761,15 +14248,15 @@
         <v>10</v>
       </c>
       <c r="I357">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2491103202846976</v>
       </c>
       <c r="J357">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2028469750889679</v>
       </c>
       <c r="K357">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2775800711743772</v>
       </c>
     </row>
@@ -13796,15 +14283,15 @@
         <v>10</v>
       </c>
       <c r="I358">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0269058295964126</v>
       </c>
       <c r="J358">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.0582959641255605</v>
       </c>
       <c r="K358">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6278026905829597</v>
       </c>
     </row>
@@ -13831,15 +14318,15 @@
         <v>10</v>
       </c>
       <c r="I359">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4474885844748859</v>
       </c>
       <c r="J359">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7168949771689497</v>
       </c>
       <c r="K359">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5388127853881279</v>
       </c>
     </row>
@@ -13866,15 +14353,15 @@
         <v>10</v>
       </c>
       <c r="I360">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0077519379844961</v>
       </c>
       <c r="J360">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7170542635658914</v>
       </c>
       <c r="K360">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5</v>
       </c>
     </row>
@@ -13901,15 +14388,15 @@
         <v>10</v>
       </c>
       <c r="I361">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6408163265306122</v>
       </c>
       <c r="J361">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5632653061224491</v>
       </c>
       <c r="K361">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5387755102040817</v>
       </c>
     </row>
@@ -13936,15 +14423,15 @@
         <v>10</v>
       </c>
       <c r="I362">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5572519083969465</v>
       </c>
       <c r="J362">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4656488549618321</v>
       </c>
       <c r="K362">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3625954198473282</v>
       </c>
     </row>
@@ -13971,15 +14458,15 @@
         <v>10</v>
       </c>
       <c r="I363">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J363">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6371681415929205</v>
       </c>
       <c r="K363">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3761061946902655</v>
       </c>
     </row>
@@ -14006,15 +14493,15 @@
         <v>10</v>
       </c>
       <c r="I364">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2384615384615385</v>
       </c>
       <c r="J364">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2076923076923076</v>
       </c>
       <c r="K364">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5115384615384615</v>
       </c>
     </row>
@@ -14041,15 +14528,15 @@
         <v>10</v>
       </c>
       <c r="I365">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1200000000000001</v>
       </c>
       <c r="J365">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.8044444444444445</v>
       </c>
       <c r="K365">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6977777777777778</v>
       </c>
     </row>
@@ -14076,15 +14563,15 @@
         <v>10</v>
       </c>
       <c r="I366">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5565610859728507</v>
       </c>
       <c r="J366">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6425339366515836</v>
       </c>
       <c r="K366">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5475113122171946</v>
       </c>
     </row>
@@ -14111,15 +14598,15 @@
         <v>10</v>
       </c>
       <c r="I367">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1107266435986158</v>
       </c>
       <c r="J367">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4221453287197232</v>
       </c>
       <c r="K367">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3598615916955017</v>
       </c>
     </row>
@@ -14146,15 +14633,15 @@
         <v>10</v>
       </c>
       <c r="I368">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0892857142857142</v>
       </c>
       <c r="J368">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4750000000000001</v>
       </c>
       <c r="K368">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3964285714285714</v>
       </c>
     </row>
@@ -14181,15 +14668,15 @@
         <v>10</v>
       </c>
       <c r="I369">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.6046511627906976</v>
       </c>
       <c r="J369">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4728682170542635</v>
       </c>
       <c r="K369">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5116279069767442</v>
       </c>
     </row>
@@ -14216,15 +14703,15 @@
         <v>10</v>
       </c>
       <c r="I370">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2025862068965518</v>
       </c>
       <c r="J370">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.146551724137931</v>
       </c>
       <c r="K370">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6594827586206897</v>
       </c>
     </row>
@@ -14251,15 +14738,15 @@
         <v>10</v>
       </c>
       <c r="I371">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2788844621513944</v>
       </c>
       <c r="J371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2589641434262948</v>
       </c>
       <c r="K371">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2589641434262948</v>
       </c>
     </row>
@@ -14286,15 +14773,15 @@
         <v>10</v>
       </c>
       <c r="I372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4135338345864661</v>
       </c>
       <c r="J372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2894736842105263</v>
       </c>
       <c r="K372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3157894736842106</v>
       </c>
     </row>
@@ -14321,15 +14808,15 @@
         <v>10</v>
       </c>
       <c r="I373">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5663716814159292</v>
       </c>
       <c r="J373">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.4734513274336283</v>
       </c>
       <c r="K373">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4513274336283186</v>
       </c>
     </row>
@@ -14356,15 +14843,15 @@
         <v>10</v>
       </c>
       <c r="I374">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4343065693430657</v>
       </c>
       <c r="J374">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.281021897810219</v>
       </c>
       <c r="K374">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3211678832116789</v>
       </c>
     </row>
@@ -14391,15 +14878,15 @@
         <v>10</v>
       </c>
       <c r="I375">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3527131782945736</v>
       </c>
       <c r="J375">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.7248062015503876</v>
       </c>
       <c r="K375">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7248062015503876</v>
       </c>
     </row>
@@ -14426,15 +14913,15 @@
         <v>10</v>
       </c>
       <c r="I376">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2891566265060241</v>
       </c>
       <c r="J376">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3534136546184738</v>
       </c>
       <c r="K376">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.5863453815261044</v>
       </c>
     </row>
@@ -14461,15 +14948,15 @@
         <v>10</v>
       </c>
       <c r="I377">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.1136363636363635</v>
       </c>
       <c r="J377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.224025974025974</v>
       </c>
       <c r="K377">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2694805194805194</v>
       </c>
     </row>
@@ -14496,15 +14983,15 @@
         <v>10</v>
       </c>
       <c r="I378">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4888888888888889</v>
       </c>
       <c r="J378">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3222222222222222</v>
       </c>
       <c r="K378">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3518518518518519</v>
       </c>
     </row>
@@ -14531,15 +15018,15 @@
         <v>10</v>
       </c>
       <c r="I379">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5431654676258992</v>
       </c>
       <c r="J379">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2805755395683454</v>
       </c>
       <c r="K379">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2805755395683454</v>
       </c>
     </row>
@@ -14566,15 +15053,15 @@
         <v>10</v>
       </c>
       <c r="I380">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3280632411067195</v>
       </c>
       <c r="J380">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3201581027667983</v>
       </c>
       <c r="K380">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3280632411067195</v>
       </c>
     </row>
@@ -14601,15 +15088,15 @@
         <v>10</v>
       </c>
       <c r="I381">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3396946564885497</v>
       </c>
       <c r="J381">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3282442748091603</v>
       </c>
       <c r="K381">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.3740458015267176</v>
       </c>
     </row>
@@ -14636,15 +15123,15 @@
         <v>10</v>
       </c>
       <c r="I382">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.4922480620155039</v>
       </c>
       <c r="J382">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.445736434108527</v>
       </c>
       <c r="K382">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.4108527131782946</v>
       </c>
     </row>
@@ -14671,15 +15158,15 @@
         <v>10</v>
       </c>
       <c r="I383">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.3629343629343629</v>
       </c>
       <c r="J383">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.5714285714285714</v>
       </c>
       <c r="K383">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.7104247104247103</v>
       </c>
     </row>
@@ -14706,15 +15193,15 @@
         <v>10</v>
       </c>
       <c r="I384">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.2490118577075098</v>
       </c>
       <c r="J384">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.3241106719367588</v>
       </c>
       <c r="K384">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2608695652173914</v>
       </c>
     </row>
@@ -14741,15 +15228,15 @@
         <v>10</v>
       </c>
       <c r="I385">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.337037037037037</v>
       </c>
       <c r="J385">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="K385">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.2962962962962963</v>
       </c>
     </row>
@@ -14776,15 +15263,15 @@
         <v>10</v>
       </c>
       <c r="I386">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.0150375939849625</v>
       </c>
       <c r="J386">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.6203007518796992</v>
       </c>
       <c r="K386">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1.6015037593984962</v>
       </c>
     </row>
@@ -14811,15 +15298,15 @@
         <v>10</v>
       </c>
       <c r="I387">
-        <f t="shared" ref="I387:I450" si="18">D387/C387</f>
+        <f t="shared" ref="I387:I450" si="21">D387/C387</f>
         <v>1.379591836734694</v>
       </c>
       <c r="J387">
-        <f t="shared" ref="J387:J450" si="19">E387/C387</f>
+        <f t="shared" ref="J387:J450" si="22">E387/C387</f>
         <v>1.510204081632653</v>
       </c>
       <c r="K387">
-        <f t="shared" ref="K387:K450" si="20">F387/C387</f>
+        <f t="shared" ref="K387:K450" si="23">F387/C387</f>
         <v>1.383673469387755</v>
       </c>
     </row>
@@ -14846,15 +15333,15 @@
         <v>10</v>
       </c>
       <c r="I388">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3439716312056738</v>
       </c>
       <c r="J388">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4432624113475176</v>
       </c>
       <c r="K388">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6879432624113475</v>
       </c>
     </row>
@@ -14881,15 +15368,15 @@
         <v>10</v>
       </c>
       <c r="I389">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.250996015936255</v>
       </c>
       <c r="J389">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2350597609561753</v>
       </c>
       <c r="K389">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2350597609561753</v>
       </c>
     </row>
@@ -14916,15 +15403,15 @@
         <v>10</v>
       </c>
       <c r="I390">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1543859649122807</v>
       </c>
       <c r="J390">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1087719298245613</v>
       </c>
       <c r="K390">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1543859649122807</v>
       </c>
     </row>
@@ -14951,15 +15438,15 @@
         <v>10</v>
       </c>
       <c r="I391">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.191588785046729</v>
       </c>
       <c r="J391">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3364485981308412</v>
       </c>
       <c r="K391">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3598130841121496</v>
       </c>
     </row>
@@ -14986,15 +15473,15 @@
         <v>10</v>
       </c>
       <c r="I392">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3919413919413919</v>
       </c>
       <c r="J392">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3296703296703296</v>
       </c>
       <c r="K392">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3296703296703296</v>
       </c>
     </row>
@@ -15021,15 +15508,15 @@
         <v>10</v>
       </c>
       <c r="I393">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4905660377358489</v>
       </c>
       <c r="J393">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2641509433962264</v>
       </c>
       <c r="K393">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2981132075471697</v>
       </c>
     </row>
@@ -15056,15 +15543,15 @@
         <v>10</v>
       </c>
       <c r="I394">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2294520547945205</v>
       </c>
       <c r="J394">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2191780821917808</v>
       </c>
       <c r="K394">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2089041095890412</v>
       </c>
     </row>
@@ -15091,15 +15578,15 @@
         <v>10</v>
       </c>
       <c r="I395">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3663793103448276</v>
       </c>
       <c r="J395">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2370689655172413</v>
       </c>
       <c r="K395">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2370689655172413</v>
       </c>
     </row>
@@ -15126,15 +15613,15 @@
         <v>10</v>
       </c>
       <c r="I396">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6493506493506493</v>
       </c>
       <c r="J396">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9090909090909092</v>
       </c>
       <c r="K396">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9393939393939394</v>
       </c>
     </row>
@@ -15161,15 +15648,15 @@
         <v>10</v>
       </c>
       <c r="I397">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3864541832669324</v>
       </c>
       <c r="J397">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1673306772908367</v>
       </c>
       <c r="K397">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4422310756972112</v>
       </c>
     </row>
@@ -15196,15 +15683,15 @@
         <v>10</v>
       </c>
       <c r="I398">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.448</v>
       </c>
       <c r="J398">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3839999999999999</v>
       </c>
       <c r="K398">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4079999999999999</v>
       </c>
     </row>
@@ -15231,15 +15718,15 @@
         <v>10</v>
       </c>
       <c r="I399">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3159851301115242</v>
       </c>
       <c r="J399">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2899628252788105</v>
       </c>
       <c r="K399">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.553903345724907</v>
       </c>
     </row>
@@ -15266,15 +15753,15 @@
         <v>10</v>
       </c>
       <c r="I400">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1351351351351351</v>
       </c>
       <c r="J400">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.0900900900900901</v>
       </c>
       <c r="K400">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.454954954954955</v>
       </c>
     </row>
@@ -15301,15 +15788,15 @@
         <v>10</v>
       </c>
       <c r="I401">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4384615384615385</v>
       </c>
       <c r="J401">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5384615384615385</v>
       </c>
       <c r="K401">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5</v>
       </c>
     </row>
@@ -15336,15 +15823,15 @@
         <v>11</v>
       </c>
       <c r="I402">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2899628252788105</v>
       </c>
       <c r="J402">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2304832713754648</v>
       </c>
       <c r="K402">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3643122676579926</v>
       </c>
     </row>
@@ -15371,15 +15858,15 @@
         <v>11</v>
       </c>
       <c r="I403">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5</v>
       </c>
       <c r="J403">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3951612903225807</v>
       </c>
       <c r="K403">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3951612903225807</v>
       </c>
     </row>
@@ -15406,15 +15893,15 @@
         <v>11</v>
       </c>
       <c r="I404">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4403669724770642</v>
       </c>
       <c r="J404">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9954128440366972</v>
       </c>
       <c r="K404">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9174311926605505</v>
       </c>
     </row>
@@ -15441,15 +15928,15 @@
         <v>11</v>
       </c>
       <c r="I405">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.456273764258555</v>
       </c>
       <c r="J405">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7034220532319391</v>
       </c>
       <c r="K405">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7034220532319391</v>
       </c>
     </row>
@@ -15476,15 +15963,15 @@
         <v>11</v>
       </c>
       <c r="I406">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.55078125</v>
       </c>
       <c r="J406">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.359375</v>
       </c>
       <c r="K406">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.51171875</v>
       </c>
     </row>
@@ -15511,15 +15998,15 @@
         <v>11</v>
       </c>
       <c r="I407">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5981735159817352</v>
       </c>
       <c r="J407">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5159817351598173</v>
       </c>
       <c r="K407">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5205479452054795</v>
       </c>
     </row>
@@ -15546,15 +16033,15 @@
         <v>11</v>
       </c>
       <c r="I408">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2526315789473683</v>
       </c>
       <c r="J408">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.287719298245614</v>
       </c>
       <c r="K408">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2842105263157895</v>
       </c>
     </row>
@@ -15581,15 +16068,15 @@
         <v>11</v>
       </c>
       <c r="I409">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2510121457489878</v>
       </c>
       <c r="J409">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5425101214574899</v>
       </c>
       <c r="K409">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5425101214574899</v>
       </c>
     </row>
@@ -15616,15 +16103,15 @@
         <v>11</v>
       </c>
       <c r="I410">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2517241379310344</v>
       </c>
       <c r="J410">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2172413793103449</v>
       </c>
       <c r="K410">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2344827586206897</v>
       </c>
     </row>
@@ -15651,15 +16138,15 @@
         <v>11</v>
       </c>
       <c r="I411">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4503816793893129</v>
       </c>
       <c r="J411">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3549618320610688</v>
       </c>
       <c r="K411">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3473282442748091</v>
       </c>
     </row>
@@ -15686,15 +16173,15 @@
         <v>11</v>
       </c>
       <c r="I412">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.9177489177489178</v>
       </c>
       <c r="J412">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6839826839826839</v>
       </c>
       <c r="K412">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.696969696969697</v>
       </c>
     </row>
@@ -15721,15 +16208,15 @@
         <v>11</v>
       </c>
       <c r="I413">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1300813008130082</v>
       </c>
       <c r="J413">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.1747967479674797</v>
       </c>
       <c r="K413">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.1626016260162602</v>
       </c>
     </row>
@@ -15756,15 +16243,15 @@
         <v>11</v>
       </c>
       <c r="I414">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4179104477611941</v>
       </c>
       <c r="J414">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3843283582089552</v>
       </c>
       <c r="K414">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3768656716417911</v>
       </c>
     </row>
@@ -15791,15 +16278,15 @@
         <v>11</v>
       </c>
       <c r="I415">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1884816753926701</v>
       </c>
       <c r="J415">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2670157068062826</v>
       </c>
       <c r="K415">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4083769633507854</v>
       </c>
     </row>
@@ -15826,15 +16313,15 @@
         <v>11</v>
       </c>
       <c r="I416">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5063291139240507</v>
       </c>
       <c r="J416">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6075949367088607</v>
       </c>
       <c r="K416">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6075949367088607</v>
       </c>
     </row>
@@ -15861,15 +16348,15 @@
         <v>11</v>
       </c>
       <c r="I417">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5555555555555556</v>
       </c>
       <c r="J417">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4732510288065843</v>
       </c>
       <c r="K417">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5185185185185186</v>
       </c>
     </row>
@@ -15896,15 +16383,15 @@
         <v>11</v>
       </c>
       <c r="I418">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3247232472324724</v>
       </c>
       <c r="J418">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2804428044280443</v>
       </c>
       <c r="K418">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5313653136531364</v>
       </c>
     </row>
@@ -15931,15 +16418,15 @@
         <v>11</v>
       </c>
       <c r="I419">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5751072961373391</v>
       </c>
       <c r="J419">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.9914163090128756</v>
       </c>
       <c r="K419">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.9785407725321889</v>
       </c>
     </row>
@@ -15966,15 +16453,15 @@
         <v>11</v>
       </c>
       <c r="I420">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3197026022304832</v>
       </c>
       <c r="J420">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7806691449814127</v>
       </c>
       <c r="K420">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7434944237918215</v>
       </c>
     </row>
@@ -16001,15 +16488,15 @@
         <v>11</v>
       </c>
       <c r="I421">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.353356890459364</v>
       </c>
       <c r="J421">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3144876325088339</v>
       </c>
       <c r="K421">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3144876325088339</v>
       </c>
     </row>
@@ -16036,15 +16523,15 @@
         <v>11</v>
       </c>
       <c r="I422">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3956043956043955</v>
       </c>
       <c r="J422">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3040293040293041</v>
       </c>
       <c r="K422">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3223443223443223</v>
       </c>
     </row>
@@ -16071,15 +16558,15 @@
         <v>11</v>
       </c>
       <c r="I423">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2142857142857142</v>
       </c>
       <c r="J423">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.236842105263158</v>
       </c>
       <c r="K423">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4661654135338347</v>
       </c>
     </row>
@@ -16106,15 +16593,15 @@
         <v>11</v>
       </c>
       <c r="I424">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3497942386831276</v>
       </c>
       <c r="J424">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4115226337448559</v>
       </c>
       <c r="K424">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4115226337448559</v>
       </c>
     </row>
@@ -16141,15 +16628,15 @@
         <v>11</v>
       </c>
       <c r="I425">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3098039215686275</v>
       </c>
       <c r="J425">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4784313725490197</v>
       </c>
       <c r="K425">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5215686274509803</v>
       </c>
     </row>
@@ -16176,15 +16663,15 @@
         <v>11</v>
       </c>
       <c r="I426">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4423791821561338</v>
       </c>
       <c r="J426">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2936802973977695</v>
       </c>
       <c r="K426">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2936802973977695</v>
       </c>
     </row>
@@ -16211,15 +16698,15 @@
         <v>11</v>
       </c>
       <c r="I427">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="J427">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2930232558139534</v>
       </c>
       <c r="K427">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3209302325581396</v>
       </c>
     </row>
@@ -16246,15 +16733,15 @@
         <v>11</v>
       </c>
       <c r="I428">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="J428">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.374074074074074</v>
       </c>
       <c r="K428">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.374074074074074</v>
       </c>
     </row>
@@ -16281,15 +16768,15 @@
         <v>11</v>
       </c>
       <c r="I429">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1564885496183206</v>
       </c>
       <c r="J429">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6374045801526718</v>
       </c>
       <c r="K429">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5496183206106871</v>
       </c>
     </row>
@@ -16316,15 +16803,15 @@
         <v>11</v>
       </c>
       <c r="I430">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4804270462633451</v>
       </c>
       <c r="J430">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2419928825622777</v>
       </c>
       <c r="K430">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2811387900355873</v>
       </c>
     </row>
@@ -16351,15 +16838,15 @@
         <v>11</v>
       </c>
       <c r="I431">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6652542372881356</v>
       </c>
       <c r="J431">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5932203389830508</v>
       </c>
       <c r="K431">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6906779661016949</v>
       </c>
     </row>
@@ -16386,15 +16873,15 @@
         <v>11</v>
       </c>
       <c r="I432">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3115384615384615</v>
       </c>
       <c r="J432">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4230769230769231</v>
       </c>
       <c r="K432">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2538461538461538</v>
       </c>
     </row>
@@ -16421,15 +16908,15 @@
         <v>11</v>
       </c>
       <c r="I433">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3647058823529412</v>
       </c>
       <c r="J433">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4</v>
       </c>
       <c r="K433">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4352941176470588</v>
       </c>
     </row>
@@ -16456,15 +16943,15 @@
         <v>11</v>
       </c>
       <c r="I434">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3646209386281589</v>
       </c>
       <c r="J434">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3393501805054151</v>
       </c>
       <c r="K434">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2743682310469313</v>
       </c>
     </row>
@@ -16491,15 +16978,15 @@
         <v>11</v>
       </c>
       <c r="I435">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.364963503649635</v>
       </c>
       <c r="J435">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3211678832116789</v>
       </c>
       <c r="K435">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2737226277372262</v>
       </c>
     </row>
@@ -16526,15 +17013,15 @@
         <v>11</v>
       </c>
       <c r="I436">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1358490566037736</v>
       </c>
       <c r="J436">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3547169811320754</v>
       </c>
       <c r="K436">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6075471698113208</v>
       </c>
     </row>
@@ -16561,15 +17048,15 @@
         <v>11</v>
       </c>
       <c r="I437">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4696356275303644</v>
       </c>
       <c r="J437">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4898785425101215</v>
       </c>
       <c r="K437">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.417004048582996</v>
       </c>
     </row>
@@ -16596,15 +17083,15 @@
         <v>11</v>
       </c>
       <c r="I438">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6820276497695852</v>
       </c>
       <c r="J438">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.4838709677419355</v>
       </c>
       <c r="K438">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6221198156682028</v>
       </c>
     </row>
@@ -16631,15 +17118,15 @@
         <v>11</v>
       </c>
       <c r="I439">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.4708520179372198</v>
       </c>
       <c r="J439">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.8340807174887892</v>
       </c>
       <c r="K439">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5874439461883407</v>
       </c>
     </row>
@@ -16666,15 +17153,15 @@
         <v>11</v>
       </c>
       <c r="I440">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0818965517241379</v>
       </c>
       <c r="J440">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.5258620689655173</v>
       </c>
       <c r="K440">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4655172413793103</v>
       </c>
     </row>
@@ -16701,15 +17188,15 @@
         <v>11</v>
       </c>
       <c r="I441">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2795275590551181</v>
       </c>
       <c r="J441">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.484251968503937</v>
       </c>
       <c r="K441">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5039370078740157</v>
       </c>
     </row>
@@ -16736,15 +17223,15 @@
         <v>11</v>
       </c>
       <c r="I442">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1732851985559567</v>
       </c>
       <c r="J442">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3790613718411553</v>
       </c>
       <c r="K442">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3826714801444044</v>
       </c>
     </row>
@@ -16771,15 +17258,15 @@
         <v>11</v>
       </c>
       <c r="I443">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3890909090909092</v>
       </c>
       <c r="J443">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2654545454545454</v>
       </c>
       <c r="K443">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3345454545454545</v>
       </c>
     </row>
@@ -16806,15 +17293,15 @@
         <v>11</v>
       </c>
       <c r="I444">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.3265306122448979</v>
       </c>
       <c r="J444">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.510204081632653</v>
       </c>
       <c r="K444">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5061224489795919</v>
       </c>
     </row>
@@ -16841,15 +17328,15 @@
         <v>11</v>
       </c>
       <c r="I445">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2753623188405796</v>
       </c>
       <c r="J445">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.2717391304347827</v>
       </c>
       <c r="K445">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.5471014492753623</v>
       </c>
     </row>
@@ -16876,15 +17363,15 @@
         <v>11</v>
       </c>
       <c r="I446">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.6905660377358491</v>
       </c>
       <c r="J446">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.3433962264150943</v>
       </c>
       <c r="K446">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3735849056603773</v>
       </c>
     </row>
@@ -16911,15 +17398,15 @@
         <v>11</v>
       </c>
       <c r="I447">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.0151515151515151</v>
       </c>
       <c r="J447">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6098484848484849</v>
       </c>
       <c r="K447">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4583333333333333</v>
       </c>
     </row>
@@ -16946,15 +17433,15 @@
         <v>11</v>
       </c>
       <c r="I448">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.248945147679325</v>
       </c>
       <c r="J448">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.7721518987341771</v>
       </c>
       <c r="K448">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.7721518987341771</v>
       </c>
     </row>
@@ -16981,15 +17468,15 @@
         <v>11</v>
       </c>
       <c r="I449">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.224264705882353</v>
       </c>
       <c r="J449">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.463235294117647</v>
       </c>
       <c r="K449">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.4448529411764706</v>
       </c>
     </row>
@@ -17016,15 +17503,15 @@
         <v>11</v>
       </c>
       <c r="I450">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.5294117647058822</v>
       </c>
       <c r="J450">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1.6877828054298643</v>
       </c>
       <c r="K450">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.6877828054298643</v>
       </c>
     </row>
@@ -17051,15 +17538,15 @@
         <v>11</v>
       </c>
       <c r="I451">
-        <f t="shared" ref="I451" si="21">D451/C451</f>
+        <f t="shared" ref="I451" si="24">D451/C451</f>
         <v>1.2639405204460967</v>
       </c>
       <c r="J451">
-        <f t="shared" ref="J451" si="22">E451/C451</f>
+        <f t="shared" ref="J451" si="25">E451/C451</f>
         <v>1.449814126394052</v>
       </c>
       <c r="K451">
-        <f t="shared" ref="K451" si="23">F451/C451</f>
+        <f t="shared" ref="K451" si="26">F451/C451</f>
         <v>1.687732342007435</v>
       </c>
     </row>
